--- a/results/FMG.xlsx
+++ b/results/FMG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5421,6 +5421,1250 @@
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>832</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>0.0178407412022352</v>
+      </c>
+      <c r="E103" t="n">
+        <v>466.0378516784252</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>947.1698362444597</v>
+      </c>
+      <c r="H103" t="n">
+        <v>33</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-15.09433635924169</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>481.1319845660345</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>843</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>0.0299589857459068</v>
+      </c>
+      <c r="E104" t="n">
+        <v>371.9099871749187</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>523.5954114627168</v>
+      </c>
+      <c r="H104" t="n">
+        <v>22</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-25.84271550316049</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>151.6854242877981</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>844</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>0.036354724317789</v>
+      </c>
+      <c r="E105" t="n">
+        <v>291.6666401950965</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>413.8888107063117</v>
+      </c>
+      <c r="H105" t="n">
+        <v>21</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-25.92593370056484</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>122.2221705112152</v>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>889</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>0.1110838800668716</v>
+      </c>
+      <c r="E106" t="n">
+        <v>192.4241617349992</v>
+      </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>259.0907725698341</v>
+      </c>
+      <c r="H106" t="n">
+        <v>46</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-7.272748125917099</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>66.66661083483493</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>893</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>0.1622497290372848</v>
+      </c>
+      <c r="E107" t="n">
+        <v>72.19919005509998</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>145.8506189807024</v>
+      </c>
+      <c r="H107" t="n">
+        <v>42</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-21.36926827332137</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>73.65142892560242</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>934</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>0.316757321357727</v>
+      </c>
+      <c r="E108" t="n">
+        <v>319.766230999871</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>343.6769599428212</v>
+      </c>
+      <c r="H108" t="n">
+        <v>47</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-16.57811249903101</v>
+      </c>
+      <c r="J108" t="n">
+        <v>9</v>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>50</v>
+      </c>
+      <c r="M108" t="n">
+        <v>259.1923762011446</v>
+      </c>
+      <c r="N108" t="n">
+        <v>23.91072894295019</v>
+      </c>
+      <c r="O108" t="n">
+        <v>-60.57385479872636</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-84.48458374167654</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>964</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>0.5308461785316467</v>
+      </c>
+      <c r="E109" t="n">
+        <v>376.8548282692319</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>454.8509942930094</v>
+      </c>
+      <c r="H109" t="n">
+        <v>46</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-1.77551844535123</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>20</v>
+      </c>
+      <c r="M109" t="n">
+        <v>114.3310426615583</v>
+      </c>
+      <c r="N109" t="n">
+        <v>77.9961660237775</v>
+      </c>
+      <c r="O109" t="n">
+        <v>-262.5237856076736</v>
+      </c>
+      <c r="P109" t="n">
+        <v>-340.5199516314511</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>1.969213962554932</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-67.52137422177323</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>124.7863026165353</v>
+      </c>
+      <c r="H110" t="n">
+        <v>32</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-68.80341800461765</v>
+      </c>
+      <c r="J110" t="n">
+        <v>52</v>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>42</v>
+      </c>
+      <c r="M110" t="n">
+        <v>9.230772583559089</v>
+      </c>
+      <c r="N110" t="n">
+        <v>192.3076768383086</v>
+      </c>
+      <c r="O110" t="n">
+        <v>76.75214680533232</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-115.5555300329763</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>3.090152025222778</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-71.24183427606911</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>43.24613225838542</v>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-87.36383748476962</v>
+      </c>
+      <c r="J111" t="n">
+        <v>28</v>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>17</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-30.39217463849536</v>
+      </c>
+      <c r="N111" t="n">
+        <v>114.4879665344545</v>
+      </c>
+      <c r="O111" t="n">
+        <v>40.84965963757375</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-73.63830689688078</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>0.9526280760765076</v>
+      </c>
+      <c r="E112" t="n">
+        <v>72.79158817169862</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>96.81981008376262</v>
+      </c>
+      <c r="H112" t="n">
+        <v>46</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-22.96819754822275</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4</v>
+      </c>
+      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>24.028221912064</v>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>1.070444345474243</v>
+      </c>
+      <c r="E113" t="n">
+        <v>30.50316174395609</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>75.15723989440222</v>
+      </c>
+      <c r="H113" t="n">
+        <v>31</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-16.9811302139</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>50</v>
+      </c>
+      <c r="M113" t="n">
+        <v>16.9811631734283</v>
+      </c>
+      <c r="N113" t="n">
+        <v>44.65407815044613</v>
+      </c>
+      <c r="O113" t="n">
+        <v>-13.52199857052779</v>
+      </c>
+      <c r="P113" t="n">
+        <v>-58.17607672097392</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>1.494582891464233</v>
+      </c>
+      <c r="E114" t="n">
+        <v>47.29730958478864</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>56.08104313076475</v>
+      </c>
+      <c r="H114" t="n">
+        <v>44</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-26.12611859532427</v>
+      </c>
+      <c r="J114" t="n">
+        <v>20</v>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>20</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-16.21620629999513</v>
+      </c>
+      <c r="N114" t="n">
+        <v>8.783733545976119</v>
+      </c>
+      <c r="O114" t="n">
+        <v>-63.51351588478377</v>
+      </c>
+      <c r="P114" t="n">
+        <v>-72.29724943075989</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1147</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>1.494582891464233</v>
+      </c>
+      <c r="E115" t="n">
+        <v>34.40700556013294</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>65.31527764083806</v>
+      </c>
+      <c r="H115" t="n">
+        <v>23</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-3.603606339397119</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>30</v>
+      </c>
+      <c r="M115" t="n">
+        <v>33.04933132442191</v>
+      </c>
+      <c r="N115" t="n">
+        <v>30.90827208070512</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-1.357674235711031</v>
+      </c>
+      <c r="P115" t="n">
+        <v>-32.26594631641615</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>1.783771514892578</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-3.96831994953004</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>18.79822858937822</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-45.37469068370795</v>
+      </c>
+      <c r="J116" t="n">
+        <v>30</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>11</v>
+      </c>
+      <c r="M116" t="n">
+        <v>8.225558965366082</v>
+      </c>
+      <c r="N116" t="n">
+        <v>22.76654853890826</v>
+      </c>
+      <c r="O116" t="n">
+        <v>12.19387891489612</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-10.57266962401213</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>2.057367563247681</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-35.78450556104401</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3.000018063334668</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-52.63895839944887</v>
+      </c>
+      <c r="J117" t="n">
+        <v>24</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-6.166660389548309</v>
+      </c>
+      <c r="N117" t="n">
+        <v>38.78452362437869</v>
+      </c>
+      <c r="O117" t="n">
+        <v>29.61784517149571</v>
+      </c>
+      <c r="P117" t="n">
+        <v>-9.166678452882977</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>1.494528293609619</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27.30193605940554</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>40.83962992994832</v>
+      </c>
+      <c r="H118" t="n">
+        <v>49</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-33.41068169660229</v>
+      </c>
+      <c r="J118" t="n">
+        <v>28</v>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>16</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-17.16939411081364</v>
+      </c>
+      <c r="N118" t="n">
+        <v>13.53769387054278</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-44.47133017021919</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-58.00902404076197</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1310</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>1.753481864929199</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-25.26360244069183</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>25.91095506008519</v>
+      </c>
+      <c r="H119" t="n">
+        <v>22</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-26.74144946244506</v>
+      </c>
+      <c r="J119" t="n">
+        <v>52</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>18</v>
+      </c>
+      <c r="M119" t="n">
+        <v>7.894727896798699</v>
+      </c>
+      <c r="N119" t="n">
+        <v>51.17455750077703</v>
+      </c>
+      <c r="O119" t="n">
+        <v>33.15833033749053</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-18.01622716328649</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>1.167674422264099</v>
+      </c>
+      <c r="E120" t="n">
+        <v>91.25876720989737</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>145.1483737699501</v>
+      </c>
+      <c r="H120" t="n">
+        <v>45</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-11.34868645685374</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>50</v>
+      </c>
+      <c r="M120" t="n">
+        <v>116.6439700901353</v>
+      </c>
+      <c r="N120" t="n">
+        <v>53.8896065600527</v>
+      </c>
+      <c r="O120" t="n">
+        <v>25.38520288023793</v>
+      </c>
+      <c r="P120" t="n">
+        <v>-28.50440367981477</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>2.045235872268677</v>
+      </c>
+      <c r="E121" t="n">
+        <v>170.7654545325256</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>180.8875514218833</v>
+      </c>
+      <c r="H121" t="n">
+        <v>49</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-5.131032637375474</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>10.12209688935769</v>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>4.958136081695557</v>
+      </c>
+      <c r="E122" t="n">
+        <v>97.29877913610977</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>121.3799745153539</v>
+      </c>
+      <c r="H122" t="n">
+        <v>44</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-10.64718623138125</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>16</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5.219194332737223</v>
+      </c>
+      <c r="N122" t="n">
+        <v>24.08119537924409</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-92.07958480337255</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-116.1607801826166</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>8.138830184936523</v>
+      </c>
+      <c r="E123" t="n">
+        <v>77.64977358111182</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>91.95766133250339</v>
+      </c>
+      <c r="H123" t="n">
+        <v>49</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-6.740046708272708</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>40</v>
+      </c>
+      <c r="M123" t="n">
+        <v>64.4246865135991</v>
+      </c>
+      <c r="N123" t="n">
+        <v>14.30788775139158</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-13.22508706751272</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-27.53297481890429</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1687</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>13.54159927368164</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1.841388182990319</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>23.55225290603096</v>
+      </c>
+      <c r="H124" t="n">
+        <v>32</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-28.11356173606627</v>
+      </c>
+      <c r="J124" t="n">
+        <v>46</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>12</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-1.176768363950115</v>
+      </c>
+      <c r="N124" t="n">
+        <v>25.39364108902128</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.6646198190402033</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-24.72902126998108</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1717</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>16.22738838195801</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-26.10772435963363</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3.103164775067916</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-40.01145980675746</v>
+      </c>
+      <c r="J125" t="n">
+        <v>16</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>9</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-34.09890894558833</v>
+      </c>
+      <c r="N125" t="n">
+        <v>29.21088913470155</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-7.991184585954695</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-37.20207372065624</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1797</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>17.76359748840332</v>
+      </c>
+      <c r="E126" t="n">
+        <v>40.17193370170494</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>42.63958321080995</v>
+      </c>
+      <c r="H126" t="n">
+        <v>49</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-13.01078632773804</v>
+      </c>
+      <c r="J126" t="n">
+        <v>18</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-1.022672987846014</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2.467649509105016</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-41.19460668955095</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-43.66225619865597</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>19.9660758972168</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-8.049274864458011</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>28.92810605526275</v>
+      </c>
+      <c r="H127" t="n">
+        <v>13</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-25.08067941322744</v>
+      </c>
+      <c r="J127" t="n">
+        <v>45</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>32</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3.950296399284122</v>
+      </c>
+      <c r="N127" t="n">
+        <v>36.97738091972076</v>
+      </c>
+      <c r="O127" t="n">
+        <v>11.99957126374213</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-24.97780965597862</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>21.51316833496094</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-19.8285039864897</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>19.65640349685234</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-30.46840810646527</v>
+      </c>
+      <c r="J128" t="n">
+        <v>42</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>29</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-3.525158399219228</v>
+      </c>
+      <c r="N128" t="n">
+        <v>39.48490748334204</v>
+      </c>
+      <c r="O128" t="n">
+        <v>16.30334558727047</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-23.18156189607157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5650,40 +6894,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>60.71428571428571</v>
       </c>
       <c r="D4" t="n">
-        <v>-32.38086627286113</v>
+        <v>87.71201210716326</v>
       </c>
       <c r="E4" t="n">
-        <v>-32.38086627286113</v>
+        <v>37.28946963091894</v>
       </c>
       <c r="F4" t="n">
-        <v>1.3496791582943</v>
+        <v>148.0087538007874</v>
       </c>
       <c r="G4" t="n">
-        <v>47.62196717677465</v>
+        <v>156.8062516894483</v>
       </c>
       <c r="H4" t="n">
-        <v>-63.77024980099419</v>
+        <v>-28.42725244146962</v>
       </c>
       <c r="I4" t="n">
-        <v>80.00283344963577</v>
+        <v>69.09423958228508</v>
       </c>
       <c r="J4" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="L4" t="n">
         <v>50</v>
       </c>
-      <c r="K4" t="n">
-        <v>12</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100</v>
-      </c>
       <c r="M4" t="n">
-        <v>50.00564194487266</v>
+        <v>-15.17611900260404</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>

--- a/results/FMG.xlsx
+++ b/results/FMG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,48 +573,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>823</v>
+        <v>664</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0.0148111805319786</v>
+        <v>0.0046251281164586</v>
       </c>
       <c r="E3" t="n">
-        <v>488.6363807853723</v>
+        <v>-31.42649898760508</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1161.36373821707</v>
+        <v>28.57350541003614</v>
       </c>
       <c r="H3" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>-11.36362121441889</v>
+        <v>-56.42649386732853</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.090920523581159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>672.7273574316978</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-479.5454602617912</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-1152.272817693489</v>
-      </c>
+        <v>60.00000439764122</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -623,40 +615,48 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>843</v>
+        <v>762</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.0299589857459068</v>
+        <v>0.0027939276769757</v>
       </c>
       <c r="E4" t="n">
-        <v>371.9099871749187</v>
+        <v>671.0843855428643</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>523.5954114627168</v>
+        <v>1092.770869068074</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
-        <v>-25.84271550316049</v>
+        <v>-25.30121265071487</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>659.0356795114116</v>
+      </c>
       <c r="N4" t="n">
-        <v>151.6854242877981</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>421.6864835252093</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-12.04870603145275</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-433.735189556662</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -665,40 +665,48 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>858</v>
+        <v>775</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.1208457425236702</v>
+        <v>0.0065640462562441</v>
       </c>
       <c r="E5" t="n">
-        <v>79.66580148105619</v>
+        <v>146.1538592506841</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>83.84408867591935</v>
+        <v>407.6922698723473</v>
       </c>
       <c r="H5" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I5" t="n">
-        <v>-37.32589660505556</v>
+        <v>-10.25641017055874</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>223.0767593664756</v>
+      </c>
       <c r="N5" t="n">
-        <v>4.178287194863159</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>261.5384106216632</v>
+      </c>
+      <c r="O5" t="n">
+        <v>76.92290011579149</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-184.6155105058717</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -707,40 +715,48 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889</v>
+        <v>823</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.1110838800668716</v>
+        <v>0.0148111805319786</v>
       </c>
       <c r="E6" t="n">
-        <v>192.4241617349992</v>
+        <v>488.6363807853723</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>259.0907725698341</v>
+        <v>1161.36373821707</v>
       </c>
       <c r="H6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.272748125917099</v>
+        <v>-11.36362121441889</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.090920523581159</v>
+      </c>
       <c r="N6" t="n">
-        <v>66.66661083483493</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>672.7273574316978</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-479.5454602617912</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1152.272817693489</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -749,29 +765,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900</v>
+        <v>843</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.1760511249303817</v>
+        <v>0.0299589857459068</v>
       </c>
       <c r="E7" t="n">
-        <v>83.36511183501833</v>
+        <v>371.9099871749187</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>126.5773441041155</v>
+        <v>523.5954114627168</v>
       </c>
       <c r="H7" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>-12.04590278952284</v>
+        <v>-25.84271550316049</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -779,7 +795,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>43.21223226909713</v>
+        <v>151.6854242877981</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -791,29 +807,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>905</v>
+        <v>858</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0.1895158141851425</v>
+        <v>0.1208457425236702</v>
       </c>
       <c r="E8" t="n">
-        <v>131.2610810767035</v>
+        <v>79.66580148105619</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>144.7602204218404</v>
+        <v>83.84408867591935</v>
       </c>
       <c r="H8" t="n">
         <v>52</v>
       </c>
       <c r="I8" t="n">
-        <v>-17.93962678731888</v>
+        <v>-37.32589660505556</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -821,7 +837,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>13.49913934513688</v>
+        <v>4.178287194863159</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -833,29 +849,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0.2474140226840973</v>
+        <v>0.1110838800668716</v>
       </c>
       <c r="E9" t="n">
-        <v>212.9251513851693</v>
+        <v>192.4241617349992</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>226.5306869434733</v>
+        <v>259.0907725698341</v>
       </c>
       <c r="H9" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" t="n">
-        <v>-18.3673291469188</v>
+        <v>-7.272748125917099</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -863,7 +879,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>13.60553555830401</v>
+        <v>66.66661083483493</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -875,29 +891,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>931</v>
+        <v>900</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0.2746800780296325</v>
+        <v>0.1760511249303817</v>
       </c>
       <c r="E10" t="n">
-        <v>357.7205331085828</v>
+        <v>83.36511183501833</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>411.6422216993339</v>
+        <v>126.5773441041155</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I10" t="n">
-        <v>-15.44117008017451</v>
+        <v>-12.04590278952284</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -905,7 +921,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>53.9216885907511</v>
+        <v>43.21223226909713</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -917,48 +933,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0.316757321357727</v>
+        <v>0.1895158141851425</v>
       </c>
       <c r="E11" t="n">
-        <v>319.766230999871</v>
+        <v>131.2610810767035</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>343.6769599428212</v>
+        <v>144.7602204218404</v>
       </c>
       <c r="H11" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I11" t="n">
-        <v>-16.57811249903101</v>
+        <v>-17.93962678731888</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>50</v>
-      </c>
-      <c r="M11" t="n">
-        <v>259.1923762011446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>23.91072894295019</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-60.57385479872636</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-84.48458374167654</v>
-      </c>
+        <v>13.49913934513688</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -967,48 +975,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>976</v>
+        <v>922</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>0.8092290759086609</v>
+        <v>0.2474140226840973</v>
       </c>
       <c r="E12" t="n">
-        <v>241.5141230753389</v>
+        <v>212.9251513851693</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>263.9767017073592</v>
+        <v>226.5306869434733</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.069884850691341</v>
+        <v>-18.3673291469188</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>8</v>
-      </c>
-      <c r="M12" t="n">
-        <v>40.59901988795289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>22.4625786320203</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-200.915103187386</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-223.3776818194063</v>
-      </c>
+        <v>13.60553555830401</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1017,48 +1017,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029</v>
+        <v>931</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>3.090152025222778</v>
+        <v>0.2746800780296325</v>
       </c>
       <c r="E13" t="n">
-        <v>-71.24183427606911</v>
+        <v>357.7205331085828</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>43.24613225838542</v>
+        <v>411.6422216993339</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I13" t="n">
-        <v>-87.36383748476962</v>
+        <v>-15.44117008017451</v>
       </c>
       <c r="J13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>17</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-30.39217463849536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>114.4879665344545</v>
-      </c>
-      <c r="O13" t="n">
-        <v>40.84965963757375</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-73.63830689688078</v>
-      </c>
+        <v>53.9216885907511</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1067,47 +1059,47 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1036</v>
+        <v>934</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>4.083173751831055</v>
+        <v>0.316757321357727</v>
       </c>
       <c r="E14" t="n">
-        <v>-68.92003315179336</v>
+        <v>319.766230999871</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>8.408887940435319</v>
+        <v>343.6769599428212</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I14" t="n">
-        <v>-90.43693323851997</v>
+        <v>-16.57811249903101</v>
       </c>
       <c r="J14" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M14" t="n">
-        <v>-47.32069326813527</v>
+        <v>259.1923762011446</v>
       </c>
       <c r="N14" t="n">
-        <v>77.32892109222868</v>
+        <v>23.91072894295019</v>
       </c>
       <c r="O14" t="n">
-        <v>21.59933988365809</v>
+        <v>-60.57385479872636</v>
       </c>
       <c r="P14" t="n">
-        <v>-55.72958120857059</v>
+        <v>-84.48458374167654</v>
       </c>
     </row>
     <row r="15">
@@ -1117,40 +1109,48 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1082</v>
+        <v>976</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0.8954031467437744</v>
+        <v>0.8092290759086609</v>
       </c>
       <c r="E15" t="n">
-        <v>62.03009751056624</v>
+        <v>241.5141230753389</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>109.3985013294706</v>
+        <v>263.9767017073592</v>
       </c>
       <c r="H15" t="n">
         <v>34</v>
       </c>
       <c r="I15" t="n">
-        <v>-6.015022632090962</v>
+        <v>-8.069884850691341</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>40.59901988795289</v>
+      </c>
       <c r="N15" t="n">
-        <v>47.36840381890433</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+        <v>22.4625786320203</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-200.915103187386</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-223.3776818194063</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1159,47 +1159,47 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085</v>
+        <v>1029</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>1.070444345474243</v>
+        <v>3.090152025222778</v>
       </c>
       <c r="E16" t="n">
-        <v>30.50316174395609</v>
+        <v>-71.24183427606911</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.15723989440222</v>
+        <v>43.24613225838542</v>
       </c>
       <c r="H16" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>-16.9811302139</v>
+        <v>-87.36383748476962</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M16" t="n">
-        <v>16.9811631734283</v>
+        <v>-30.39217463849536</v>
       </c>
       <c r="N16" t="n">
-        <v>44.65407815044613</v>
+        <v>114.4879665344545</v>
       </c>
       <c r="O16" t="n">
-        <v>-13.52199857052779</v>
+        <v>40.84965963757375</v>
       </c>
       <c r="P16" t="n">
-        <v>-58.17607672097392</v>
+        <v>-73.63830689688078</v>
       </c>
     </row>
     <row r="17">
@@ -1209,47 +1209,47 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1109</v>
+        <v>1036</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>1.42052686214447</v>
+        <v>4.083173751831055</v>
       </c>
       <c r="E17" t="n">
-        <v>58.76780961918953</v>
+        <v>-68.92003315179336</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>64.21798345507632</v>
+        <v>8.408887940435319</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.27486701180231</v>
+        <v>-90.43693323851997</v>
       </c>
       <c r="J17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>-11.84832333479604</v>
+        <v>-47.32069326813527</v>
       </c>
       <c r="N17" t="n">
-        <v>5.450173835886787</v>
+        <v>77.32892109222868</v>
       </c>
       <c r="O17" t="n">
-        <v>-70.61613295398558</v>
+        <v>21.59933988365809</v>
       </c>
       <c r="P17" t="n">
-        <v>-76.06630678987237</v>
+        <v>-55.72958120857059</v>
       </c>
     </row>
     <row r="18">
@@ -1259,48 +1259,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1111</v>
+        <v>1082</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>1.444090366363525</v>
+        <v>0.8954031467437744</v>
       </c>
       <c r="E18" t="n">
-        <v>51.51510148500387</v>
+        <v>62.03009751056624</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>61.53840658362842</v>
+        <v>109.3985013294706</v>
       </c>
       <c r="H18" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I18" t="n">
-        <v>-23.5431231692795</v>
+        <v>-6.015022632090962</v>
       </c>
       <c r="J18" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>24</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-13.2867114394463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>10.02330509862455</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-64.80181292445018</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-74.82511802307472</v>
-      </c>
+        <v>47.36840381890433</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1309,47 +1301,47 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1128</v>
+        <v>1085</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>1.672990202903748</v>
+        <v>1.070444345474243</v>
       </c>
       <c r="E19" t="n">
-        <v>30.78749348281919</v>
+        <v>30.50316174395609</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>47.68609238166079</v>
+        <v>75.15723989440222</v>
       </c>
       <c r="H19" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I19" t="n">
-        <v>-34.00401324415981</v>
+        <v>-16.9811302139</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="M19" t="n">
-        <v>-25.1508918410561</v>
+        <v>16.9811631734283</v>
       </c>
       <c r="N19" t="n">
-        <v>16.89859889884159</v>
+        <v>44.65407815044613</v>
       </c>
       <c r="O19" t="n">
-        <v>-55.93838532387529</v>
+        <v>-13.52199857052779</v>
       </c>
       <c r="P19" t="n">
-        <v>-72.83698422271689</v>
+        <v>-58.17607672097392</v>
       </c>
     </row>
     <row r="20">
@@ -1359,47 +1351,47 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1.797538638114929</v>
+        <v>1.42052686214447</v>
       </c>
       <c r="E20" t="n">
-        <v>21.91364498890399</v>
+        <v>58.76780961918953</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>37.45317091974459</v>
+        <v>64.21798345507632</v>
       </c>
       <c r="H20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I20" t="n">
-        <v>-38.57676439752457</v>
+        <v>-22.27486701180231</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M20" t="n">
-        <v>-30.33706091719082</v>
+        <v>-11.84832333479604</v>
       </c>
       <c r="N20" t="n">
-        <v>15.5395259308406</v>
+        <v>5.450173835886787</v>
       </c>
       <c r="O20" t="n">
-        <v>-52.25070590609481</v>
+        <v>-70.61613295398558</v>
       </c>
       <c r="P20" t="n">
-        <v>-67.79023183693542</v>
+        <v>-76.06630678987237</v>
       </c>
     </row>
     <row r="21">
@@ -1409,47 +1401,47 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1139</v>
+        <v>1111</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1.471019387245178</v>
+        <v>1.444090366363525</v>
       </c>
       <c r="E21" t="n">
-        <v>39.31879798748846</v>
+        <v>51.51510148500387</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>67.9633781865822</v>
+        <v>61.53840658362842</v>
       </c>
       <c r="H21" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>-10.75513090122401</v>
+        <v>-23.5431231692795</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M21" t="n">
-        <v>35.18058024417728</v>
+        <v>-13.2867114394463</v>
       </c>
       <c r="N21" t="n">
-        <v>28.64458019909375</v>
+        <v>10.02330509862455</v>
       </c>
       <c r="O21" t="n">
-        <v>-4.138217743311181</v>
+        <v>-64.80181292445018</v>
       </c>
       <c r="P21" t="n">
-        <v>-32.78279794240493</v>
+        <v>-74.82511802307472</v>
       </c>
     </row>
     <row r="22">
@@ -1459,47 +1451,47 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1.511413335800171</v>
+        <v>1.672990202903748</v>
       </c>
       <c r="E22" t="n">
-        <v>28.4351635433856</v>
+        <v>30.78749348281919</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>63.47439830471578</v>
+        <v>47.68609238166079</v>
       </c>
       <c r="H22" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I22" t="n">
-        <v>-4.677034831300011</v>
+        <v>-34.00401324415981</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>31.56775159255864</v>
+        <v>-25.1508918410561</v>
       </c>
       <c r="N22" t="n">
-        <v>35.03923476133019</v>
+        <v>16.89859889884159</v>
       </c>
       <c r="O22" t="n">
-        <v>3.132588049173041</v>
+        <v>-55.93838532387529</v>
       </c>
       <c r="P22" t="n">
-        <v>-31.90664671215714</v>
+        <v>-72.83698422271689</v>
       </c>
     </row>
     <row r="23">
@@ -1509,47 +1501,47 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1147</v>
+        <v>1130</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1.494582891464233</v>
+        <v>1.797538638114929</v>
       </c>
       <c r="E23" t="n">
-        <v>34.40700556013294</v>
+        <v>21.91364498890399</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>65.31527764083806</v>
+        <v>37.45317091974459</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I23" t="n">
-        <v>-3.603606339397119</v>
+        <v>-38.57676439752457</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>33.04933132442191</v>
+        <v>-30.33706091719082</v>
       </c>
       <c r="N23" t="n">
-        <v>30.90827208070512</v>
+        <v>15.5395259308406</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.357674235711031</v>
+        <v>-52.25070590609481</v>
       </c>
       <c r="P23" t="n">
-        <v>-32.26594631641615</v>
+        <v>-67.79023183693542</v>
       </c>
     </row>
     <row r="24">
@@ -1559,47 +1551,47 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>1.615765571594239</v>
+        <v>1.471019387245178</v>
       </c>
       <c r="E24" t="n">
-        <v>27.88464886885254</v>
+        <v>39.31879798748846</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>52.91660498488698</v>
+        <v>67.9633781865822</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I24" t="n">
-        <v>-3.333364754396761</v>
+        <v>-10.75513090122401</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
-        <v>23.07060987939816</v>
+        <v>35.18058024417728</v>
       </c>
       <c r="N24" t="n">
-        <v>25.03195611603444</v>
+        <v>28.64458019909375</v>
       </c>
       <c r="O24" t="n">
-        <v>-4.814038989454378</v>
+        <v>-4.138217743311181</v>
       </c>
       <c r="P24" t="n">
-        <v>-29.84599510548882</v>
+        <v>-32.78279794240493</v>
       </c>
     </row>
     <row r="25">
@@ -1609,47 +1601,47 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1170</v>
+        <v>1146</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>2.184649229049683</v>
+        <v>1.511413335800171</v>
       </c>
       <c r="E25" t="n">
-        <v>-19.12888380471944</v>
+        <v>28.4351635433856</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>13.09705117609859</v>
+        <v>63.47439830471578</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I25" t="n">
-        <v>-38.45066697027143</v>
+        <v>-4.677034831300011</v>
       </c>
       <c r="J25" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M25" t="n">
-        <v>-8.977033166675453</v>
+        <v>31.56775159255864</v>
       </c>
       <c r="N25" t="n">
-        <v>32.22593498081802</v>
+        <v>35.03923476133019</v>
       </c>
       <c r="O25" t="n">
-        <v>10.15185063804398</v>
+        <v>3.132588049173041</v>
       </c>
       <c r="P25" t="n">
-        <v>-22.07408434277404</v>
+        <v>-31.90664671215714</v>
       </c>
     </row>
     <row r="26">
@@ -1659,47 +1651,47 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1189</v>
+        <v>1147</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>2.184680223464966</v>
+        <v>1.494582891464233</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.27195548111781</v>
+        <v>34.40700556013294</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>4.798777804435264</v>
+        <v>65.31527764083806</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I26" t="n">
-        <v>-38.45154018071561</v>
+        <v>-3.603606339397119</v>
       </c>
       <c r="J26" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M26" t="n">
-        <v>-11.14552286408708</v>
+        <v>33.04933132442191</v>
       </c>
       <c r="N26" t="n">
-        <v>33.07073328555308</v>
+        <v>30.90827208070512</v>
       </c>
       <c r="O26" t="n">
-        <v>17.12643261703073</v>
+        <v>-1.357674235711031</v>
       </c>
       <c r="P26" t="n">
-        <v>-15.94430066852235</v>
+        <v>-32.26594631641615</v>
       </c>
     </row>
     <row r="27">
@@ -1709,47 +1701,47 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1203</v>
+        <v>1150</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>2.113973379135132</v>
+        <v>1.615765571594239</v>
       </c>
       <c r="E27" t="n">
-        <v>-45.70556378301741</v>
+        <v>27.88464886885254</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9661826475196811</v>
+        <v>52.91660498488698</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>-53.90714390620086</v>
+        <v>-3.333364754396761</v>
       </c>
       <c r="J27" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M27" t="n">
-        <v>-20.28984011656267</v>
+        <v>23.07060987939816</v>
       </c>
       <c r="N27" t="n">
-        <v>46.67174643053709</v>
+        <v>25.03195611603444</v>
       </c>
       <c r="O27" t="n">
-        <v>25.41572366645475</v>
+        <v>-4.814038989454378</v>
       </c>
       <c r="P27" t="n">
-        <v>-21.25602276408235</v>
+        <v>-29.84599510548882</v>
       </c>
     </row>
     <row r="28">
@@ -1759,47 +1751,47 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1269</v>
+        <v>1170</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>1.494528293609619</v>
+        <v>2.184649229049683</v>
       </c>
       <c r="E28" t="n">
-        <v>27.30193605940554</v>
+        <v>-19.12888380471944</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>40.83962992994832</v>
+        <v>13.09705117609859</v>
       </c>
       <c r="H28" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-33.41068169660229</v>
+        <v>-38.45066697027143</v>
       </c>
       <c r="J28" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>-17.16939411081364</v>
+        <v>-8.977033166675453</v>
       </c>
       <c r="N28" t="n">
-        <v>13.53769387054278</v>
+        <v>32.22593498081802</v>
       </c>
       <c r="O28" t="n">
-        <v>-44.47133017021919</v>
+        <v>10.15185063804398</v>
       </c>
       <c r="P28" t="n">
-        <v>-58.00902404076197</v>
+        <v>-22.07408434277404</v>
       </c>
     </row>
     <row r="29">
@@ -1809,47 +1801,47 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1272</v>
+        <v>1189</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>1.685245752334595</v>
+        <v>2.184680223464966</v>
       </c>
       <c r="E29" t="n">
-        <v>22.58410032322581</v>
+        <v>-28.27195548111781</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.11160918356776</v>
+        <v>4.798777804435264</v>
       </c>
       <c r="H29" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-40.94652360420501</v>
+        <v>-38.45154018071561</v>
       </c>
       <c r="J29" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M29" t="n">
-        <v>-26.54324515773157</v>
+        <v>-11.14552286408708</v>
       </c>
       <c r="N29" t="n">
-        <v>2.52750886034195</v>
+        <v>33.07073328555308</v>
       </c>
       <c r="O29" t="n">
-        <v>-49.12734548095737</v>
+        <v>17.12643261703073</v>
       </c>
       <c r="P29" t="n">
-        <v>-51.65485434129933</v>
+        <v>-15.94430066852235</v>
       </c>
     </row>
     <row r="30">
@@ -1859,47 +1851,47 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1278</v>
+        <v>1203</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>1.813545942306518</v>
+        <v>2.113973379135132</v>
       </c>
       <c r="E30" t="n">
-        <v>11.56313304708057</v>
+        <v>-45.70556378301741</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>16.2605275255373</v>
+        <v>0.9661826475196811</v>
       </c>
       <c r="H30" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-45.12429052112519</v>
+        <v>-53.90714390620086</v>
       </c>
       <c r="J30" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>-31.73997901548965</v>
+        <v>-20.28984011656267</v>
       </c>
       <c r="N30" t="n">
-        <v>4.697394478456729</v>
+        <v>46.67174643053709</v>
       </c>
       <c r="O30" t="n">
-        <v>-43.30311206257021</v>
+        <v>25.41572366645475</v>
       </c>
       <c r="P30" t="n">
-        <v>-48.00050654102694</v>
+        <v>-21.25602276408235</v>
       </c>
     </row>
     <row r="31">
@@ -1909,47 +1901,47 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1316</v>
+        <v>1269</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>1.938058972358704</v>
+        <v>1.494528293609619</v>
       </c>
       <c r="E31" t="n">
-        <v>-39.83087435261886</v>
+        <v>27.30193605940554</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>13.91943147378666</v>
+        <v>40.83962992994832</v>
       </c>
       <c r="H31" t="n">
+        <v>49</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-33.41068169660229</v>
+      </c>
+      <c r="J31" t="n">
+        <v>28</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
         <v>16</v>
       </c>
-      <c r="I31" t="n">
-        <v>-42.12302454904677</v>
-      </c>
-      <c r="J31" t="n">
-        <v>52</v>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12</v>
-      </c>
       <c r="M31" t="n">
-        <v>-2.38096395062083</v>
+        <v>-17.16939411081364</v>
       </c>
       <c r="N31" t="n">
-        <v>53.75030582640552</v>
+        <v>13.53769387054278</v>
       </c>
       <c r="O31" t="n">
-        <v>37.44991040199803</v>
+        <v>-44.47133017021919</v>
       </c>
       <c r="P31" t="n">
-        <v>-16.30039542440749</v>
+        <v>-58.00902404076197</v>
       </c>
     </row>
     <row r="32">
@@ -1959,47 +1951,47 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1324</v>
+        <v>1272</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>2.065843343734741</v>
+        <v>1.685245752334595</v>
       </c>
       <c r="E32" t="n">
-        <v>-49.2870213017649</v>
+        <v>22.58410032322581</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>6.872855080401365</v>
+        <v>25.11160918356776</v>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I32" t="n">
-        <v>-58.60529337745949</v>
+        <v>-40.94652360420501</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M32" t="n">
-        <v>-8.419266512979275</v>
+        <v>-26.54324515773157</v>
       </c>
       <c r="N32" t="n">
-        <v>56.15987638216627</v>
+        <v>2.52750886034195</v>
       </c>
       <c r="O32" t="n">
-        <v>40.86775478878562</v>
+        <v>-49.12734548095737</v>
       </c>
       <c r="P32" t="n">
-        <v>-15.29212159338064</v>
+        <v>-51.65485434129933</v>
       </c>
     </row>
     <row r="33">
@@ -2009,47 +2001,47 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1354</v>
+        <v>1278</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>1.690963864326477</v>
+        <v>1.813545942306518</v>
       </c>
       <c r="E33" t="n">
-        <v>-58.89411246505334</v>
+        <v>11.56313304708057</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>7.4786273971024</v>
+        <v>16.2605275255373</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I33" t="n">
-        <v>-64.32319894494726</v>
+        <v>-45.12429052112519</v>
       </c>
       <c r="J33" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>-55.68099039304869</v>
+        <v>-31.73997901548965</v>
       </c>
       <c r="N33" t="n">
-        <v>66.37273986215574</v>
+        <v>4.697394478456729</v>
       </c>
       <c r="O33" t="n">
-        <v>3.213122072004651</v>
+        <v>-43.30311206257021</v>
       </c>
       <c r="P33" t="n">
-        <v>-63.15961779015109</v>
+        <v>-48.00050654102694</v>
       </c>
     </row>
     <row r="34">
@@ -2059,47 +2051,47 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1416</v>
+        <v>1316</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>0.8636487126350403</v>
+        <v>1.938058972358704</v>
       </c>
       <c r="E34" t="n">
-        <v>125.2195968410768</v>
+        <v>-39.83087435261886</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6323643509226</v>
+        <v>13.91943147378666</v>
       </c>
       <c r="H34" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I34" t="n">
-        <v>-36.84211236106161</v>
+        <v>-42.12302454904677</v>
       </c>
       <c r="J34" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M34" t="n">
-        <v>-9.649141271534983</v>
+        <v>-2.38096395062083</v>
       </c>
       <c r="N34" t="n">
-        <v>16.41276750984572</v>
+        <v>53.75030582640552</v>
       </c>
       <c r="O34" t="n">
-        <v>-134.8687381126118</v>
+        <v>37.44991040199803</v>
       </c>
       <c r="P34" t="n">
-        <v>-151.2815056224575</v>
+        <v>-16.30039542440749</v>
       </c>
     </row>
     <row r="35">
@@ -2109,47 +2101,47 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1443</v>
+        <v>1324</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>1.167674422264099</v>
+        <v>2.065843343734741</v>
       </c>
       <c r="E35" t="n">
-        <v>91.25876720989737</v>
+        <v>-49.2870213017649</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>145.1483737699501</v>
+        <v>6.872855080401365</v>
       </c>
       <c r="H35" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
-        <v>-11.34868645685374</v>
+        <v>-58.60529337745949</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>116.6439700901353</v>
+        <v>-8.419266512979275</v>
       </c>
       <c r="N35" t="n">
-        <v>53.8896065600527</v>
+        <v>56.15987638216627</v>
       </c>
       <c r="O35" t="n">
-        <v>25.38520288023793</v>
+        <v>40.86775478878562</v>
       </c>
       <c r="P35" t="n">
-        <v>-28.50440367981477</v>
+        <v>-15.29212159338064</v>
       </c>
     </row>
     <row r="36">
@@ -2159,47 +2151,47 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1451</v>
+        <v>1354</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>1.236813068389893</v>
+        <v>1.690963864326477</v>
       </c>
       <c r="E36" t="n">
-        <v>59.55578430748888</v>
+        <v>-58.89411246505334</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>131.4444219800008</v>
+        <v>7.4786273971024</v>
       </c>
       <c r="H36" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-5.279495040779867</v>
+        <v>-64.32319894494726</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M36" t="n">
-        <v>104.5334328018706</v>
+        <v>-55.68099039304869</v>
       </c>
       <c r="N36" t="n">
-        <v>71.8886376725119</v>
+        <v>66.37273986215574</v>
       </c>
       <c r="O36" t="n">
-        <v>44.97764849438174</v>
+        <v>3.213122072004651</v>
       </c>
       <c r="P36" t="n">
-        <v>-26.91098917813017</v>
+        <v>-63.15961779015109</v>
       </c>
     </row>
     <row r="37">
@@ -2209,47 +2201,47 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1453</v>
+        <v>1416</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>1.256018161773682</v>
+        <v>0.8636487126350403</v>
       </c>
       <c r="E37" t="n">
-        <v>50.65038357122332</v>
+        <v>125.2195968410768</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>127.9055306864178</v>
+        <v>141.6323643509226</v>
       </c>
       <c r="H37" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.363911184631203</v>
+        <v>-36.84211236106161</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="M37" t="n">
-        <v>101.406022867352</v>
+        <v>-9.649141271534983</v>
       </c>
       <c r="N37" t="n">
-        <v>77.2551471151945</v>
+        <v>16.41276750984572</v>
       </c>
       <c r="O37" t="n">
-        <v>50.75563929612865</v>
+        <v>-134.8687381126118</v>
       </c>
       <c r="P37" t="n">
-        <v>-26.49950781906585</v>
+        <v>-151.2815056224575</v>
       </c>
     </row>
     <row r="38">
@@ -2259,47 +2251,47 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1471</v>
+        <v>1443</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2.169541835784912</v>
+        <v>1.167674422264099</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.459463908661784</v>
+        <v>91.25876720989737</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>31.94190634597608</v>
+        <v>145.1483737699501</v>
       </c>
       <c r="H38" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I38" t="n">
-        <v>-15.4038344924535</v>
+        <v>-11.34868645685374</v>
       </c>
       <c r="J38" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M38" t="n">
-        <v>16.60048146546959</v>
+        <v>116.6439700901353</v>
       </c>
       <c r="N38" t="n">
-        <v>38.40137025463786</v>
+        <v>53.8896065600527</v>
       </c>
       <c r="O38" t="n">
-        <v>23.05994537413137</v>
+        <v>25.38520288023793</v>
       </c>
       <c r="P38" t="n">
-        <v>-15.34142488050649</v>
+        <v>-28.50440367981477</v>
       </c>
     </row>
     <row r="39">
@@ -2309,47 +2301,47 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1476</v>
+        <v>1451</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>2.421539306640625</v>
+        <v>1.236813068389893</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.39282158565326</v>
+        <v>59.55578430748888</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>18.21137279325282</v>
+        <v>131.4444219800008</v>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I39" t="n">
-        <v>-24.20733385896483</v>
+        <v>-5.279495040779867</v>
       </c>
       <c r="J39" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M39" t="n">
-        <v>4.466453184665213</v>
+        <v>104.5334328018706</v>
       </c>
       <c r="N39" t="n">
-        <v>38.60419437890609</v>
+        <v>71.8886376725119</v>
       </c>
       <c r="O39" t="n">
-        <v>24.85927477031847</v>
+        <v>44.97764849438174</v>
       </c>
       <c r="P39" t="n">
-        <v>-13.74491960858761</v>
+        <v>-26.91098917813017</v>
       </c>
     </row>
     <row r="40">
@@ -2359,47 +2351,47 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1485</v>
+        <v>1453</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>2.539662837982178</v>
+        <v>1.256018161773682</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.75526876439033</v>
+        <v>50.65038357122332</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>12.7131843761769</v>
+        <v>127.9055306864178</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I40" t="n">
-        <v>-27.73256454725718</v>
+        <v>-3.363911184631203</v>
       </c>
       <c r="J40" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.3924383864316937</v>
+        <v>101.406022867352</v>
       </c>
       <c r="N40" t="n">
-        <v>29.46845314056723</v>
+        <v>77.2551471151945</v>
       </c>
       <c r="O40" t="n">
-        <v>16.36283037795864</v>
+        <v>50.75563929612865</v>
       </c>
       <c r="P40" t="n">
-        <v>-13.1056227626086</v>
+        <v>-26.49950781906585</v>
       </c>
     </row>
     <row r="41">
@@ -2409,47 +2401,47 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>2.708974123001098</v>
+        <v>2.169541835784912</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.32778898495641</v>
+        <v>-6.459463908661784</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.668593612731915</v>
+        <v>31.94190634597608</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I41" t="n">
-        <v>-32.24928999606679</v>
+        <v>-15.4038344924535</v>
       </c>
       <c r="J41" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="M41" t="n">
-        <v>-6.617925780793085</v>
+        <v>16.60048146546959</v>
       </c>
       <c r="N41" t="n">
-        <v>21.99638259768833</v>
+        <v>38.40137025463786</v>
       </c>
       <c r="O41" t="n">
-        <v>9.709863204163328</v>
+        <v>23.05994537413137</v>
       </c>
       <c r="P41" t="n">
-        <v>-12.286519393525</v>
+        <v>-15.34142488050649</v>
       </c>
     </row>
     <row r="42">
@@ -2459,47 +2451,47 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1511</v>
+        <v>1476</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>2.318549871444702</v>
+        <v>2.421539306640625</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.67181414177893</v>
+        <v>-20.39282158565326</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>10.18772589743219</v>
+        <v>18.21137279325282</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I42" t="n">
-        <v>-22.00693223482623</v>
+        <v>-24.20733385896483</v>
       </c>
       <c r="J42" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M42" t="n">
-        <v>-10.64380063843595</v>
+        <v>4.466453184665213</v>
       </c>
       <c r="N42" t="n">
-        <v>29.85954003921112</v>
+        <v>38.60419437890609</v>
       </c>
       <c r="O42" t="n">
-        <v>9.028013503342981</v>
+        <v>24.85927477031847</v>
       </c>
       <c r="P42" t="n">
-        <v>-20.83152653586814</v>
+        <v>-13.74491960858761</v>
       </c>
     </row>
     <row r="43">
@@ -2509,47 +2501,47 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1514</v>
+        <v>1485</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>2.436304569244385</v>
+        <v>2.539662837982178</v>
       </c>
       <c r="E43" t="n">
-        <v>-29.06555123685217</v>
+        <v>-16.75526876439033</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4.861986854751412</v>
+        <v>12.7131843761769</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>-30.4877846783212</v>
+        <v>-27.73256454725718</v>
       </c>
       <c r="J43" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M43" t="n">
-        <v>-14.96268276228001</v>
+        <v>-0.3924383864316937</v>
       </c>
       <c r="N43" t="n">
-        <v>33.92753809160358</v>
+        <v>29.46845314056723</v>
       </c>
       <c r="O43" t="n">
-        <v>14.10286847457216</v>
+        <v>16.36283037795864</v>
       </c>
       <c r="P43" t="n">
-        <v>-19.82466961703142</v>
+        <v>-13.1056227626086</v>
       </c>
     </row>
     <row r="44">
@@ -2559,47 +2551,47 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1550</v>
+        <v>1487</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>2.06601881980896</v>
+        <v>2.708974123001098</v>
       </c>
       <c r="E44" t="n">
-        <v>65.5579572860735</v>
+        <v>-16.32778898495641</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>86.87632160511977</v>
+        <v>5.668593612731915</v>
       </c>
       <c r="H44" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-24.0253199829297</v>
+        <v>-32.24928999606679</v>
       </c>
       <c r="J44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>-7.966460373773687</v>
+        <v>-6.617925780793085</v>
       </c>
       <c r="N44" t="n">
-        <v>21.31836431904627</v>
+        <v>21.99638259768833</v>
       </c>
       <c r="O44" t="n">
-        <v>-73.52441765984719</v>
+        <v>9.709863204163328</v>
       </c>
       <c r="P44" t="n">
-        <v>-94.84278197889346</v>
+        <v>-12.286519393525</v>
       </c>
     </row>
     <row r="45">
@@ -2609,40 +2601,48 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1576</v>
+        <v>1511</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>1.835353136062622</v>
+        <v>2.318549871444702</v>
       </c>
       <c r="E45" t="n">
-        <v>153.7907560493732</v>
+        <v>-19.67181414177893</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>161.2211441034224</v>
+        <v>10.18772589743219</v>
       </c>
       <c r="H45" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>-8.394143862473125</v>
+        <v>-22.00693223482623</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-10.64380063843595</v>
+      </c>
       <c r="N45" t="n">
-        <v>7.430388054049217</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+        <v>29.85954003921112</v>
+      </c>
+      <c r="O45" t="n">
+        <v>9.028013503342981</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-20.83152653586814</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2651,40 +2651,48 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1585</v>
+        <v>1514</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>1.920199513435364</v>
+        <v>2.436304569244385</v>
       </c>
       <c r="E46" t="n">
-        <v>189.7443294711674</v>
+        <v>-29.06555123685217</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>199.1779199099802</v>
+        <v>4.861986854751412</v>
       </c>
       <c r="H46" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.953505223606578</v>
+        <v>-30.4877846783212</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-14.96268276228001</v>
+      </c>
       <c r="N46" t="n">
-        <v>9.433590438812786</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+        <v>33.92753809160358</v>
+      </c>
+      <c r="O46" t="n">
+        <v>14.10286847457216</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-19.82466961703142</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2693,40 +2701,48 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1586</v>
+        <v>1550</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>2.045235872268677</v>
+        <v>2.06601881980896</v>
       </c>
       <c r="E47" t="n">
-        <v>170.7654545325256</v>
+        <v>65.5579572860735</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>180.8875514218833</v>
+        <v>86.87632160511977</v>
       </c>
       <c r="H47" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" t="n">
-        <v>-5.131032637375474</v>
+        <v>-24.0253199829297</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-7.966460373773687</v>
+      </c>
       <c r="N47" t="n">
-        <v>10.12209688935769</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+        <v>21.31836431904627</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-73.52441765984719</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-94.84278197889346</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2735,48 +2751,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1594</v>
+        <v>1576</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>3.045613527297974</v>
+        <v>1.835353136062622</v>
       </c>
       <c r="E48" t="n">
-        <v>76.43873458038054</v>
+        <v>153.7907560493732</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>118.7039256856616</v>
+        <v>161.2211441034224</v>
       </c>
       <c r="H48" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I48" t="n">
-        <v>-5.8461516901599</v>
+        <v>-8.394143862473125</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>51</v>
-      </c>
-      <c r="M48" t="n">
-        <v>71.29260795309055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>42.26519110528103</v>
-      </c>
-      <c r="O48" t="n">
-        <v>-5.146126627289988</v>
-      </c>
-      <c r="P48" t="n">
-        <v>-47.41131773257102</v>
-      </c>
+        <v>7.430388054049217</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2785,48 +2793,40 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1604</v>
+        <v>1585</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>4.193575382232666</v>
+        <v>1.920199513435364</v>
       </c>
       <c r="E49" t="n">
-        <v>67.51617618381353</v>
+        <v>189.7443294711674</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>67.91660968799621</v>
+        <v>199.1779199099802</v>
       </c>
       <c r="H49" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I49" t="n">
-        <v>-21.10933848808649</v>
+        <v>-3.953505223606578</v>
       </c>
       <c r="J49" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>41</v>
-      </c>
-      <c r="M49" t="n">
-        <v>24.40245765424441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>0.4004335041826863</v>
-      </c>
-      <c r="O49" t="n">
-        <v>-43.11371852956911</v>
-      </c>
-      <c r="P49" t="n">
-        <v>-43.5141520337518</v>
-      </c>
+        <v>9.433590438812786</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2835,48 +2835,40 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1608</v>
+        <v>1586</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>4.417813301086426</v>
+        <v>2.045235872268677</v>
       </c>
       <c r="E50" t="n">
-        <v>87.64853220125235</v>
+        <v>170.7654545325256</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>93.22349150429842</v>
+        <v>180.8875514218833</v>
       </c>
       <c r="H50" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I50" t="n">
-        <v>-25.11364481539948</v>
+        <v>-5.131032637375474</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>37</v>
-      </c>
-      <c r="M50" t="n">
-        <v>18.08807850249967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>5.574959303046072</v>
-      </c>
-      <c r="O50" t="n">
-        <v>-69.56045369875268</v>
-      </c>
-      <c r="P50" t="n">
-        <v>-75.13541300179875</v>
-      </c>
+        <v>10.12209688935769</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2885,47 +2877,47 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1629</v>
+        <v>1594</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>4.958136081695557</v>
+        <v>3.045613527297974</v>
       </c>
       <c r="E51" t="n">
-        <v>97.29877913610977</v>
+        <v>76.43873458038054</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>121.3799745153539</v>
+        <v>118.7039256856616</v>
       </c>
       <c r="H51" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I51" t="n">
-        <v>-10.64718623138125</v>
+        <v>-5.8461516901599</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M51" t="n">
-        <v>5.219194332737223</v>
+        <v>71.29260795309055</v>
       </c>
       <c r="N51" t="n">
-        <v>24.08119537924409</v>
+        <v>42.26519110528103</v>
       </c>
       <c r="O51" t="n">
-        <v>-92.07958480337255</v>
+        <v>-5.146126627289988</v>
       </c>
       <c r="P51" t="n">
-        <v>-116.1607801826166</v>
+        <v>-47.41131773257102</v>
       </c>
     </row>
     <row r="52">
@@ -2935,47 +2927,47 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1632</v>
+        <v>1604</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>5.035768508911133</v>
+        <v>4.193575382232666</v>
       </c>
       <c r="E52" t="n">
-        <v>117.9671334633491</v>
+        <v>67.51617618381353</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>119.4930333357195</v>
+        <v>67.91660968799621</v>
       </c>
       <c r="H52" t="n">
         <v>52</v>
       </c>
       <c r="I52" t="n">
-        <v>-8.852321082370604</v>
+        <v>-21.10933848808649</v>
       </c>
       <c r="J52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M52" t="n">
-        <v>3.597113923110924</v>
+        <v>24.40245765424441</v>
       </c>
       <c r="N52" t="n">
-        <v>1.525899872370431</v>
+        <v>0.4004335041826863</v>
       </c>
       <c r="O52" t="n">
-        <v>-114.3700195402382</v>
+        <v>-43.11371852956911</v>
       </c>
       <c r="P52" t="n">
-        <v>-115.8959194126086</v>
+        <v>-43.5141520337518</v>
       </c>
     </row>
     <row r="53">
@@ -2985,26 +2977,26 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1639</v>
+        <v>1608</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>5.905252933502197</v>
+        <v>4.417813301086426</v>
       </c>
       <c r="E53" t="n">
-        <v>152.0357167629465</v>
+        <v>87.64853220125235</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>164.2471077130093</v>
+        <v>93.22349150429842</v>
       </c>
       <c r="H53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I53" t="n">
-        <v>-22.27282788350856</v>
+        <v>-25.11364481539948</v>
       </c>
       <c r="J53" t="n">
         <v>8</v>
@@ -3013,19 +3005,19 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="M53" t="n">
-        <v>-11.65643711069892</v>
+        <v>18.08807850249967</v>
       </c>
       <c r="N53" t="n">
-        <v>12.21139095006276</v>
+        <v>5.574959303046072</v>
       </c>
       <c r="O53" t="n">
-        <v>-163.6921538736454</v>
+        <v>-69.56045369875268</v>
       </c>
       <c r="P53" t="n">
-        <v>-175.9035448237082</v>
+        <v>-75.13541300179875</v>
       </c>
     </row>
     <row r="54">
@@ -3035,47 +3027,47 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1656</v>
+        <v>1629</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>7.024917125701904</v>
+        <v>4.958136081695557</v>
       </c>
       <c r="E54" t="n">
-        <v>104.2061674065027</v>
+        <v>97.29877913610977</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>122.3956212332826</v>
+        <v>121.3799745153539</v>
       </c>
       <c r="H54" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I54" t="n">
-        <v>-7.928278451397667</v>
+        <v>-10.64718623138125</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M54" t="n">
-        <v>90.49685253217775</v>
+        <v>5.219194332737223</v>
       </c>
       <c r="N54" t="n">
-        <v>18.18945382677997</v>
+        <v>24.08119537924409</v>
       </c>
       <c r="O54" t="n">
-        <v>-13.7093148743249</v>
+        <v>-92.07958480337255</v>
       </c>
       <c r="P54" t="n">
-        <v>-31.89876870110487</v>
+        <v>-116.1607801826166</v>
       </c>
     </row>
     <row r="55">
@@ -3085,47 +3077,47 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1665</v>
+        <v>1632</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>9.174374580383301</v>
+        <v>5.035768508911133</v>
       </c>
       <c r="E55" t="n">
-        <v>76.87732542178406</v>
+        <v>117.9671334633491</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>78.07800021533269</v>
+        <v>119.4930333357195</v>
       </c>
       <c r="H55" t="n">
         <v>52</v>
       </c>
       <c r="I55" t="n">
-        <v>-9.273932329198042</v>
+        <v>-8.852321082370604</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M55" t="n">
-        <v>45.86548543668633</v>
+        <v>3.597113923110924</v>
       </c>
       <c r="N55" t="n">
-        <v>1.200674793548629</v>
+        <v>1.525899872370431</v>
       </c>
       <c r="O55" t="n">
-        <v>-31.01183998509773</v>
+        <v>-114.3700195402382</v>
       </c>
       <c r="P55" t="n">
-        <v>-32.21251477864636</v>
+        <v>-115.8959194126086</v>
       </c>
     </row>
     <row r="56">
@@ -3135,47 +3127,47 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1673</v>
+        <v>1639</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>10.24929523468018</v>
+        <v>5.905252933502197</v>
       </c>
       <c r="E56" t="n">
-        <v>24.83796424452402</v>
+        <v>152.0357167629465</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>63.24001405997623</v>
+        <v>164.2471077130093</v>
       </c>
       <c r="H56" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I56" t="n">
-        <v>-9.919263274634849</v>
+        <v>-22.27282788350856</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>30.56747523649262</v>
+        <v>-11.65643711069892</v>
       </c>
       <c r="N56" t="n">
-        <v>38.4020498154522</v>
+        <v>12.21139095006276</v>
       </c>
       <c r="O56" t="n">
-        <v>5.729510991968599</v>
+        <v>-163.6921538736454</v>
       </c>
       <c r="P56" t="n">
-        <v>-32.67253882348361</v>
+        <v>-175.9035448237082</v>
       </c>
     </row>
     <row r="57">
@@ -3185,47 +3177,47 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1705</v>
+        <v>1656</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>13.63402652740478</v>
+        <v>7.024917125701904</v>
       </c>
       <c r="E57" t="n">
-        <v>14.28329807832273</v>
+        <v>104.2061674065027</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>22.71467235677371</v>
+        <v>122.3956212332826</v>
       </c>
       <c r="H57" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I57" t="n">
-        <v>-28.60089143689372</v>
+        <v>-7.928278451397667</v>
       </c>
       <c r="J57" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M57" t="n">
-        <v>-21.56369967557369</v>
+        <v>90.49685253217775</v>
       </c>
       <c r="N57" t="n">
-        <v>8.431374278450981</v>
+        <v>18.18945382677997</v>
       </c>
       <c r="O57" t="n">
-        <v>-35.84699775389642</v>
+        <v>-13.7093148743249</v>
       </c>
       <c r="P57" t="n">
-        <v>-44.27837203234739</v>
+        <v>-31.89876870110487</v>
       </c>
     </row>
     <row r="58">
@@ -3235,47 +3227,47 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1716</v>
+        <v>1665</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>15.02512454986572</v>
+        <v>9.174374580383301</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.45470211491792</v>
+        <v>76.87732542178406</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>11.35316001283938</v>
+        <v>78.07800021533269</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I58" t="n">
-        <v>-35.21136301055524</v>
+        <v>-9.273932329198042</v>
       </c>
       <c r="J58" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M58" t="n">
-        <v>-28.82570818061713</v>
+        <v>45.86548543668633</v>
       </c>
       <c r="N58" t="n">
-        <v>26.8078621277573</v>
+        <v>1.200674793548629</v>
       </c>
       <c r="O58" t="n">
-        <v>-13.3710060656992</v>
+        <v>-31.01183998509773</v>
       </c>
       <c r="P58" t="n">
-        <v>-40.1788681934565</v>
+        <v>-32.21251477864636</v>
       </c>
     </row>
     <row r="59">
@@ -3285,47 +3277,47 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1717</v>
+        <v>1673</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>16.22738838195801</v>
+        <v>10.24929523468018</v>
       </c>
       <c r="E59" t="n">
-        <v>-26.10772435963363</v>
+        <v>24.83796424452402</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>3.103164775067916</v>
+        <v>63.24001405997623</v>
       </c>
       <c r="H59" t="n">
+        <v>46</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-9.919263274634849</v>
+      </c>
+      <c r="J59" t="n">
         <v>2</v>
       </c>
-      <c r="I59" t="n">
-        <v>-40.01145980675746</v>
-      </c>
-      <c r="J59" t="n">
-        <v>16</v>
-      </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M59" t="n">
-        <v>-34.09890894558833</v>
+        <v>30.56747523649262</v>
       </c>
       <c r="N59" t="n">
-        <v>29.21088913470155</v>
+        <v>38.4020498154522</v>
       </c>
       <c r="O59" t="n">
-        <v>-7.991184585954695</v>
+        <v>5.729510991968599</v>
       </c>
       <c r="P59" t="n">
-        <v>-37.20207372065624</v>
+        <v>-32.67253882348361</v>
       </c>
     </row>
     <row r="60">
@@ -3335,47 +3327,47 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1747</v>
+        <v>1705</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>15.98851203918457</v>
+        <v>13.63402652740478</v>
       </c>
       <c r="E60" t="n">
-        <v>8.681617901876331</v>
+        <v>14.28329807832273</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>14.85671256102282</v>
+        <v>22.71467235677371</v>
       </c>
       <c r="H60" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I60" t="n">
-        <v>-28.36893502610735</v>
+        <v>-28.60089143689372</v>
       </c>
       <c r="J60" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M60" t="n">
-        <v>-14.71644486754384</v>
+        <v>-21.56369967557369</v>
       </c>
       <c r="N60" t="n">
-        <v>6.175094659146492</v>
+        <v>8.431374278450981</v>
       </c>
       <c r="O60" t="n">
-        <v>-23.39806276942017</v>
+        <v>-35.84699775389642</v>
       </c>
       <c r="P60" t="n">
-        <v>-29.57315742856667</v>
+        <v>-44.27837203234739</v>
       </c>
     </row>
     <row r="61">
@@ -3385,47 +3377,47 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1773</v>
+        <v>1716</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>13.90725612640381</v>
+        <v>15.02512454986572</v>
       </c>
       <c r="E61" t="n">
-        <v>23.39075823152114</v>
+        <v>-15.45470211491792</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>40.25416963115223</v>
+        <v>11.35316001283938</v>
       </c>
       <c r="H61" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>-17.64916570851678</v>
+        <v>-35.21136301055524</v>
       </c>
       <c r="J61" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M61" t="n">
-        <v>-16.17252910360585</v>
+        <v>-28.82570818061713</v>
       </c>
       <c r="N61" t="n">
-        <v>16.86341139963109</v>
+        <v>26.8078621277573</v>
       </c>
       <c r="O61" t="n">
-        <v>-39.563287335127</v>
+        <v>-13.3710060656992</v>
       </c>
       <c r="P61" t="n">
-        <v>-56.42669873475808</v>
+        <v>-40.1788681934565</v>
       </c>
     </row>
     <row r="62">
@@ -3435,47 +3427,47 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1850</v>
+        <v>1717</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>25.55279350280762</v>
+        <v>16.22738838195801</v>
       </c>
       <c r="E62" t="n">
-        <v>-29.47995237449394</v>
+        <v>-26.10772435963363</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7399973901465453</v>
+        <v>3.103164775067916</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>-41.46061404835985</v>
+        <v>-40.01145980675746</v>
       </c>
       <c r="J62" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M62" t="n">
-        <v>-18.77680586201875</v>
+        <v>-34.09890894558833</v>
       </c>
       <c r="N62" t="n">
-        <v>30.21994976464049</v>
+        <v>29.21088913470155</v>
       </c>
       <c r="O62" t="n">
-        <v>10.7031465124752</v>
+        <v>-7.991184585954695</v>
       </c>
       <c r="P62" t="n">
-        <v>-19.51680325216529</v>
+        <v>-37.20207372065624</v>
       </c>
     </row>
     <row r="63">
@@ -3485,190 +3477,198 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1863</v>
+        <v>1747</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>22.95551872253418</v>
+        <v>15.98851203918457</v>
       </c>
       <c r="E63" t="n">
-        <v>-30.98953553558227</v>
+        <v>8.681617901876331</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>7.833208716087224</v>
+        <v>14.85671256102282</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I63" t="n">
-        <v>-44.3695476936804</v>
+        <v>-28.36893502610735</v>
       </c>
       <c r="J63" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
-        <v>-9.58690445932271</v>
+        <v>-14.71644486754384</v>
       </c>
       <c r="N63" t="n">
-        <v>38.82274425166949</v>
+        <v>6.175094659146492</v>
       </c>
       <c r="O63" t="n">
-        <v>21.40263107625956</v>
+        <v>-23.39806276942017</v>
       </c>
       <c r="P63" t="n">
-        <v>-17.42011317540993</v>
+        <v>-29.57315742856667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>downtrend_reversal</t>
+          <t>bullish_breakout</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>624</v>
+        <v>1773</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>0.003303566481918</v>
+        <v>13.90725612640381</v>
       </c>
       <c r="E64" t="n">
-        <v>30.00819665776617</v>
+        <v>23.39075823152114</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>80.00816334664603</v>
+        <v>40.25416963115223</v>
       </c>
       <c r="H64" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I64" t="n">
-        <v>-28.00082540843385</v>
+        <v>-17.64916570851678</v>
       </c>
       <c r="J64" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.9985826759432085</v>
+        <v>-16.17252910360585</v>
       </c>
       <c r="N64" t="n">
-        <v>49.99996668887987</v>
+        <v>16.86341139963109</v>
       </c>
       <c r="O64" t="n">
-        <v>-31.00677933370937</v>
+        <v>-39.563287335127</v>
       </c>
       <c r="P64" t="n">
-        <v>-81.00674602258924</v>
+        <v>-56.42669873475808</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>downtrend_reversal</t>
+          <t>bullish_breakout</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>629</v>
+        <v>1850</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>0.003303566481918</v>
+        <v>25.55279350280762</v>
       </c>
       <c r="E65" t="n">
-        <v>30.00819665776617</v>
+        <v>-29.47995237449394</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>80.00816334664603</v>
+        <v>0.7399973901465453</v>
       </c>
       <c r="H65" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-28.00082540843385</v>
+        <v>-41.46061404835985</v>
       </c>
       <c r="J65" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K65" t="b">
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M65" t="n">
-        <v>-24.99490087541382</v>
+        <v>-18.77680586201875</v>
       </c>
       <c r="N65" t="n">
-        <v>49.99996668887987</v>
+        <v>30.21994976464049</v>
       </c>
       <c r="O65" t="n">
-        <v>-55.00309753317999</v>
+        <v>10.7031465124752</v>
       </c>
       <c r="P65" t="n">
-        <v>-105.0030642220598</v>
+        <v>-19.51680325216529</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>downtrend_reversal</t>
+          <t>bullish_breakout</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>640</v>
+        <v>1863</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>0.0041296272538602</v>
+        <v>22.95551872253418</v>
       </c>
       <c r="E66" t="n">
-        <v>-47.20411686244144</v>
+        <v>-30.98953553558227</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>44.00063210250485</v>
+        <v>7.833208716087224</v>
       </c>
       <c r="H66" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>-51.198247212623</v>
+        <v>-44.3695476936804</v>
       </c>
       <c r="J66" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K66" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-9.58690445932271</v>
+      </c>
       <c r="N66" t="n">
-        <v>91.20474896494629</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+        <v>38.82274425166949</v>
+      </c>
+      <c r="O66" t="n">
+        <v>21.40263107625956</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-17.42011317540993</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3677,40 +3677,48 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>727</v>
+        <v>624</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>0.0030295604374259</v>
+        <v>0.003303566481918</v>
       </c>
       <c r="E67" t="n">
-        <v>233.3332974686332</v>
+        <v>30.00819665776617</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>266.6666331744141</v>
+        <v>80.00816334664603</v>
       </c>
       <c r="H67" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I67" t="n">
-        <v>-55.5555572633981</v>
+        <v>-28.00082540843385</v>
       </c>
       <c r="J67" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K67" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.9985826759432085</v>
+      </c>
       <c r="N67" t="n">
-        <v>33.33333570578094</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+        <v>49.99996668887987</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-31.00677933370937</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-81.00674602258924</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3719,47 +3727,47 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>822</v>
+        <v>629</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>0.012791471555829</v>
+        <v>0.003303566481918</v>
       </c>
       <c r="E68" t="n">
-        <v>544.7370455847081</v>
+        <v>30.00819665776617</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1360.526723738131</v>
+        <v>80.00816334664603</v>
       </c>
       <c r="H68" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I68" t="n">
-        <v>-3.947366744156251</v>
+        <v>-28.00082540843385</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>26.31582779372988</v>
+        <v>-24.99490087541382</v>
       </c>
       <c r="N68" t="n">
-        <v>815.7896781534228</v>
+        <v>49.99996668887987</v>
       </c>
       <c r="O68" t="n">
-        <v>-518.4212177909782</v>
+        <v>-55.00309753317999</v>
       </c>
       <c r="P68" t="n">
-        <v>-1334.210895944401</v>
+        <v>-105.0030642220598</v>
       </c>
     </row>
     <row r="69">
@@ -3769,29 +3777,29 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>832</v>
+        <v>640</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>0.0178407412022352</v>
+        <v>0.0041296272538602</v>
       </c>
       <c r="E69" t="n">
-        <v>466.0378516784252</v>
+        <v>-47.20411686244144</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>947.1698362444597</v>
+        <v>44.00063210250485</v>
       </c>
       <c r="H69" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I69" t="n">
-        <v>-15.09433635924169</v>
+        <v>-51.198247212623</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -3799,7 +3807,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>481.1319845660345</v>
+        <v>91.20474896494629</v>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -3811,47 +3819,47 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>985</v>
+        <v>822</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>1.262316703796387</v>
+        <v>0.012791471555829</v>
       </c>
       <c r="E70" t="n">
-        <v>160.2666709478066</v>
+        <v>544.7370455847081</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>250.6666150992961</v>
+        <v>1360.526723738131</v>
       </c>
       <c r="H70" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I70" t="n">
-        <v>-33.22666975271605</v>
+        <v>-3.947366744156251</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M70" t="n">
-        <v>34.79997317991742</v>
+        <v>26.31582779372988</v>
       </c>
       <c r="N70" t="n">
-        <v>90.39994415148948</v>
+        <v>815.7896781534228</v>
       </c>
       <c r="O70" t="n">
-        <v>-125.4666977678892</v>
+        <v>-518.4212177909782</v>
       </c>
       <c r="P70" t="n">
-        <v>-215.8666419193787</v>
+        <v>-1334.210895944401</v>
       </c>
     </row>
     <row r="71">
@@ -3861,48 +3869,40 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1004</v>
+        <v>832</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>1.969213962554932</v>
+        <v>0.0178407412022352</v>
       </c>
       <c r="E71" t="n">
-        <v>-67.52137422177323</v>
+        <v>466.0378516784252</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>124.7863026165353</v>
+        <v>947.1698362444597</v>
       </c>
       <c r="H71" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I71" t="n">
-        <v>-68.80341800461765</v>
+        <v>-15.09433635924169</v>
       </c>
       <c r="J71" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="n">
-        <v>42</v>
-      </c>
-      <c r="M71" t="n">
-        <v>9.230772583559089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>192.3076768383086</v>
-      </c>
-      <c r="O71" t="n">
-        <v>76.75214680533232</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-115.5555300329763</v>
-      </c>
+        <v>481.1319845660345</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3911,47 +3911,47 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1062</v>
+        <v>985</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>0.6075949668884277</v>
+        <v>1.262316703796387</v>
       </c>
       <c r="E72" t="n">
-        <v>142.6593270073669</v>
+        <v>160.2666709478066</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>163.1578503639929</v>
+        <v>250.6666150992961</v>
       </c>
       <c r="H72" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I72" t="n">
-        <v>-8.310230711891329</v>
+        <v>-33.22666975271605</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M72" t="n">
-        <v>-1.939021078794148</v>
+        <v>34.79997317991742</v>
       </c>
       <c r="N72" t="n">
-        <v>20.49852335662604</v>
+        <v>90.39994415148948</v>
       </c>
       <c r="O72" t="n">
-        <v>-144.5983480861611</v>
+        <v>-125.4666977678892</v>
       </c>
       <c r="P72" t="n">
-        <v>-165.0968714427871</v>
+        <v>-215.8666419193787</v>
       </c>
     </row>
     <row r="73">
@@ -3961,40 +3961,48 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1068</v>
+        <v>1004</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>0.7809532284736633</v>
+        <v>1.969213962554932</v>
       </c>
       <c r="E73" t="n">
-        <v>94.39658360212364</v>
+        <v>-67.52137422177323</v>
       </c>
       <c r="F73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>140.08617952741</v>
+        <v>124.7863026165353</v>
       </c>
       <c r="H73" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I73" t="n">
-        <v>-21.76725965742197</v>
+        <v>-68.80341800461765</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K73" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>42</v>
+      </c>
+      <c r="M73" t="n">
+        <v>9.230772583559089</v>
+      </c>
       <c r="N73" t="n">
-        <v>45.68959592528638</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+        <v>192.3076768383086</v>
+      </c>
+      <c r="O73" t="n">
+        <v>76.75214680533232</v>
+      </c>
+      <c r="P73" t="n">
+        <v>-115.5555300329763</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4003,47 +4011,47 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1138</v>
+        <v>1062</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>1.383499264717102</v>
+        <v>0.6075949668884277</v>
       </c>
       <c r="E74" t="n">
-        <v>54.4875665118826</v>
+        <v>142.6593270073669</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>78.58873651817855</v>
+        <v>163.1578503639929</v>
       </c>
       <c r="H74" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I74" t="n">
-        <v>-6.812664430780679</v>
+        <v>-8.310230711891329</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
-        <v>43.73209974845836</v>
+        <v>-1.939021078794148</v>
       </c>
       <c r="N74" t="n">
-        <v>24.10117000629594</v>
+        <v>20.49852335662604</v>
       </c>
       <c r="O74" t="n">
-        <v>-10.75546676342424</v>
+        <v>-144.5983480861611</v>
       </c>
       <c r="P74" t="n">
-        <v>-34.85663676972019</v>
+        <v>-165.0968714427871</v>
       </c>
     </row>
     <row r="75">
@@ -4053,48 +4061,40 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1183</v>
+        <v>1068</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>2.194826126098633</v>
+        <v>0.7809532284736633</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.57529062214038</v>
+        <v>94.39658360212364</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>4.314330228799233</v>
+        <v>140.08617952741</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I75" t="n">
-        <v>-38.73605687803077</v>
+        <v>-21.76725965742197</v>
       </c>
       <c r="J75" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="n">
-        <v>15</v>
-      </c>
-      <c r="M75" t="n">
-        <v>-11.55626559348443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>10.88962085093961</v>
-      </c>
-      <c r="O75" t="n">
-        <v>-4.980974971344053</v>
-      </c>
-      <c r="P75" t="n">
-        <v>-15.87059582228366</v>
-      </c>
+        <v>45.68959592528638</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4103,47 +4103,47 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1201</v>
+        <v>1138</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>1.951332449913025</v>
+        <v>1.383499264717102</v>
       </c>
       <c r="E76" t="n">
-        <v>-30.06211816838978</v>
+        <v>54.4875665118826</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>9.381577864533316</v>
+        <v>78.58873651817855</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I76" t="n">
-        <v>-32.52222528560914</v>
+        <v>-6.812664430780679</v>
       </c>
       <c r="J76" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M76" t="n">
-        <v>-13.64610574292336</v>
+        <v>43.73209974845836</v>
       </c>
       <c r="N76" t="n">
-        <v>39.4436960329231</v>
+        <v>24.10117000629594</v>
       </c>
       <c r="O76" t="n">
-        <v>16.41601242546642</v>
+        <v>-10.75546676342424</v>
       </c>
       <c r="P76" t="n">
-        <v>-23.02768360745668</v>
+        <v>-34.85663676972019</v>
       </c>
     </row>
     <row r="77">
@@ -4153,47 +4153,47 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1209</v>
+        <v>1183</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>1.446761250495911</v>
+        <v>2.194826126098633</v>
       </c>
       <c r="E77" t="n">
-        <v>1.384209520634495</v>
+        <v>-6.57529062214038</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>46.47122744322417</v>
+        <v>4.314330228799233</v>
       </c>
       <c r="H77" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>-32.65020699358761</v>
+        <v>-38.73605687803077</v>
       </c>
       <c r="J77" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M77" t="n">
-        <v>5.64701981565571</v>
+        <v>-11.55626559348443</v>
       </c>
       <c r="N77" t="n">
-        <v>45.08701792258967</v>
+        <v>10.88962085093961</v>
       </c>
       <c r="O77" t="n">
-        <v>4.262810295021215</v>
+        <v>-4.980974971344053</v>
       </c>
       <c r="P77" t="n">
-        <v>-40.82420762756846</v>
+        <v>-15.87059582228366</v>
       </c>
     </row>
     <row r="78">
@@ -4203,47 +4203,47 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1222</v>
+        <v>1201</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>1.76675021648407</v>
+        <v>1.951332449913025</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.28643794184774</v>
+        <v>-30.06211816838978</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>19.94275942364977</v>
+        <v>9.381577864533316</v>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>-44.84841725702061</v>
+        <v>-32.52222528560914</v>
       </c>
       <c r="J78" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K78" t="b">
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>9.268230146266255</v>
+        <v>-13.64610574292336</v>
       </c>
       <c r="N78" t="n">
-        <v>31.22919736549751</v>
+        <v>39.4436960329231</v>
       </c>
       <c r="O78" t="n">
-        <v>20.55466808811399</v>
+        <v>16.41601242546642</v>
       </c>
       <c r="P78" t="n">
-        <v>-10.67452927738352</v>
+        <v>-23.02768360745668</v>
       </c>
     </row>
     <row r="79">
@@ -4253,47 +4253,47 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1268</v>
+        <v>1209</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>1.314213752746582</v>
+        <v>1.446761250495911</v>
       </c>
       <c r="E79" t="n">
-        <v>53.4110625643571</v>
+        <v>1.384209520634495</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>60.16330018759449</v>
+        <v>46.47122744322417</v>
       </c>
       <c r="H79" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I79" t="n">
-        <v>-24.27440357505148</v>
+        <v>-32.65020699358761</v>
       </c>
       <c r="J79" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M79" t="n">
-        <v>-5.804756783665069</v>
+        <v>5.64701981565571</v>
       </c>
       <c r="N79" t="n">
-        <v>6.752237623237392</v>
+        <v>45.08701792258967</v>
       </c>
       <c r="O79" t="n">
-        <v>-59.21581934802217</v>
+        <v>4.262810295021215</v>
       </c>
       <c r="P79" t="n">
-        <v>-65.96805697125956</v>
+        <v>-40.82420762756846</v>
       </c>
     </row>
     <row r="80">
@@ -4303,47 +4303,47 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1299</v>
+        <v>1222</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>1.227524399757385</v>
+        <v>1.76675021648407</v>
       </c>
       <c r="E80" t="n">
-        <v>27.74622395692974</v>
+        <v>-11.28643794184774</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>79.860030755732</v>
+        <v>19.94275942364977</v>
       </c>
       <c r="H80" t="n">
+        <v>9</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-44.84841725702061</v>
+      </c>
+      <c r="J80" t="n">
         <v>33</v>
       </c>
-      <c r="I80" t="n">
-        <v>-8.474587284593175</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
       <c r="K80" t="b">
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M80" t="n">
-        <v>54.1243894833373</v>
+        <v>9.268230146266255</v>
       </c>
       <c r="N80" t="n">
-        <v>52.11380679880226</v>
+        <v>31.22919736549751</v>
       </c>
       <c r="O80" t="n">
-        <v>26.37816552640756</v>
+        <v>20.55466808811399</v>
       </c>
       <c r="P80" t="n">
-        <v>-25.7356412723947</v>
+        <v>-10.67452927738352</v>
       </c>
     </row>
     <row r="81">
@@ -4353,47 +4353,47 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1330</v>
+        <v>1268</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>2.023248672485352</v>
+        <v>1.314213752746582</v>
       </c>
       <c r="E81" t="n">
-        <v>-52.61066600519437</v>
+        <v>53.4110625643571</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>9.122807935697884</v>
+        <v>60.16330018759449</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I81" t="n">
-        <v>-64.86967718572116</v>
+        <v>-24.27440357505148</v>
       </c>
       <c r="J81" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M81" t="n">
-        <v>-14.10173318312729</v>
+        <v>-5.804756783665069</v>
       </c>
       <c r="N81" t="n">
-        <v>61.73347394089226</v>
+        <v>6.752237623237392</v>
       </c>
       <c r="O81" t="n">
-        <v>38.50893282206708</v>
+        <v>-59.21581934802217</v>
       </c>
       <c r="P81" t="n">
-        <v>-23.22454111882517</v>
+        <v>-65.96805697125956</v>
       </c>
     </row>
     <row r="82">
@@ -4403,47 +4403,47 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>1.690963864326477</v>
+        <v>1.227524399757385</v>
       </c>
       <c r="E82" t="n">
-        <v>-59.6696979090272</v>
+        <v>27.74622395692974</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>7.4786273971024</v>
+        <v>79.860030755732</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I82" t="n">
-        <v>-61.22086281499247</v>
+        <v>-8.474587284593175</v>
       </c>
       <c r="J82" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M82" t="n">
-        <v>-55.68099039304869</v>
+        <v>54.1243894833373</v>
       </c>
       <c r="N82" t="n">
-        <v>67.14832530612961</v>
+        <v>52.11380679880226</v>
       </c>
       <c r="O82" t="n">
-        <v>3.988707515978511</v>
+        <v>26.37816552640756</v>
       </c>
       <c r="P82" t="n">
-        <v>-63.15961779015109</v>
+        <v>-25.7356412723947</v>
       </c>
     </row>
     <row r="83">
@@ -4453,47 +4453,47 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1392</v>
+        <v>1330</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>0.8281074166297913</v>
+        <v>2.023248672485352</v>
       </c>
       <c r="E83" t="n">
-        <v>55.84784274649064</v>
+        <v>-52.61066600519437</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>69.29898790489621</v>
+        <v>9.122807935697884</v>
       </c>
       <c r="H83" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>-34.13145775929842</v>
+        <v>-64.86967718572116</v>
       </c>
       <c r="J83" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M83" t="n">
-        <v>-9.954764647255011</v>
+        <v>-14.10173318312729</v>
       </c>
       <c r="N83" t="n">
-        <v>13.45114515840557</v>
+        <v>61.73347394089226</v>
       </c>
       <c r="O83" t="n">
-        <v>-65.80260739374566</v>
+        <v>38.50893282206708</v>
       </c>
       <c r="P83" t="n">
-        <v>-79.25375255215121</v>
+        <v>-23.22454111882517</v>
       </c>
     </row>
     <row r="84">
@@ -4503,47 +4503,47 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1412</v>
+        <v>1350</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>0.7689502239227295</v>
+        <v>1.690963864326477</v>
       </c>
       <c r="E84" t="n">
-        <v>153.4681606877813</v>
+        <v>-59.6696979090272</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>171.3901029094514</v>
+        <v>7.4786273971024</v>
       </c>
       <c r="H84" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>-29.06403216341488</v>
+        <v>-61.22086281499247</v>
       </c>
       <c r="J84" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M84" t="n">
-        <v>1.477833543293757</v>
+        <v>-55.68099039304869</v>
       </c>
       <c r="N84" t="n">
-        <v>17.92194222167009</v>
+        <v>67.14832530612961</v>
       </c>
       <c r="O84" t="n">
-        <v>-151.9903271444876</v>
+        <v>3.988707515978511</v>
       </c>
       <c r="P84" t="n">
-        <v>-169.9122693661577</v>
+        <v>-63.15961779015109</v>
       </c>
     </row>
     <row r="85">
@@ -4553,40 +4553,48 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1435</v>
+        <v>1392</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>0.7537984848022461</v>
+        <v>0.8281074166297913</v>
       </c>
       <c r="E85" t="n">
-        <v>259.3764351638063</v>
+        <v>55.84784274649064</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>268.7787164955543</v>
+        <v>69.29898790489621</v>
       </c>
       <c r="H85" t="n">
         <v>52</v>
       </c>
       <c r="I85" t="n">
-        <v>-15.57790035485041</v>
+        <v>-34.13145775929842</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-9.954764647255011</v>
+      </c>
       <c r="N85" t="n">
-        <v>9.402281331748043</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+        <v>13.45114515840557</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-65.80260739374566</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-79.25375255215121</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4595,47 +4603,47 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1506</v>
+        <v>1412</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>2.119584560394287</v>
+        <v>0.7689502239227295</v>
       </c>
       <c r="E86" t="n">
-        <v>-10.29231460053349</v>
+        <v>153.4681606877813</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>20.5310429637927</v>
+        <v>171.3901029094514</v>
       </c>
       <c r="H86" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I86" t="n">
-        <v>-14.68572633550262</v>
+        <v>-29.06403216341488</v>
       </c>
       <c r="J86" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M86" t="n">
-        <v>-2.255938067409644</v>
+        <v>1.477833543293757</v>
       </c>
       <c r="N86" t="n">
-        <v>30.82335756432618</v>
+        <v>17.92194222167009</v>
       </c>
       <c r="O86" t="n">
-        <v>8.036376533123843</v>
+        <v>-151.9903271444876</v>
       </c>
       <c r="P86" t="n">
-        <v>-22.78698103120234</v>
+        <v>-169.9122693661577</v>
       </c>
     </row>
     <row r="87">
@@ -4645,48 +4653,40 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1533</v>
+        <v>1435</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>2.266658544540405</v>
+        <v>0.7537984848022461</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.28501202528016</v>
+        <v>259.3764351638063</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>2.056077298602482</v>
+        <v>268.7787164955543</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I87" t="n">
-        <v>-30.75043476561323</v>
+        <v>-15.57790035485041</v>
       </c>
       <c r="J87" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" t="n">
-        <v>25</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-16.11307076691994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>17.34108932388265</v>
-      </c>
-      <c r="O87" t="n">
-        <v>-0.8280587416397722</v>
-      </c>
-      <c r="P87" t="n">
-        <v>-18.16914806552242</v>
-      </c>
+        <v>9.402281331748043</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4695,47 +4695,47 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1563</v>
+        <v>1506</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>1.862449049949646</v>
+        <v>2.119584560394287</v>
       </c>
       <c r="E88" t="n">
-        <v>105.9366506105763</v>
+        <v>-10.29231460053349</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>157.4207579257239</v>
+        <v>20.5310429637927</v>
       </c>
       <c r="H88" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="I88" t="n">
-        <v>-15.72112066718027</v>
+        <v>-14.68572633550262</v>
       </c>
       <c r="J88" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M88" t="n">
-        <v>-2.093026753856646</v>
+        <v>-2.255938067409644</v>
       </c>
       <c r="N88" t="n">
-        <v>51.48410731514764</v>
+        <v>30.82335756432618</v>
       </c>
       <c r="O88" t="n">
-        <v>-108.0296773644329</v>
+        <v>8.036376533123843</v>
       </c>
       <c r="P88" t="n">
-        <v>-159.5137846795806</v>
+        <v>-22.78698103120234</v>
       </c>
     </row>
     <row r="89">
@@ -4745,40 +4745,48 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1573</v>
+        <v>1533</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>1.768369793891907</v>
+        <v>2.266658544540405</v>
       </c>
       <c r="E89" t="n">
-        <v>157.8432039398791</v>
+        <v>-15.28501202528016</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>171.1158309150513</v>
+        <v>2.056077298602482</v>
       </c>
       <c r="H89" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>-10.35352327945639</v>
+        <v>-30.75043476561323</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K89" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>25</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-16.11307076691994</v>
+      </c>
       <c r="N89" t="n">
-        <v>13.27262697517227</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+        <v>17.34108932388265</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-0.8280587416397722</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-18.16914806552242</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4787,47 +4795,47 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1648</v>
+        <v>1563</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>5.793458461761475</v>
+        <v>1.862449049949646</v>
       </c>
       <c r="E90" t="n">
-        <v>117.4076811210227</v>
+        <v>105.9366506105763</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>169.3461976626087</v>
+        <v>157.4207579257239</v>
       </c>
       <c r="H90" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I90" t="n">
-        <v>-14.49275333985789</v>
+        <v>-15.72112066718027</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>130.9889007711509</v>
+        <v>-2.093026753856646</v>
       </c>
       <c r="N90" t="n">
-        <v>51.93851654158603</v>
+        <v>51.48410731514764</v>
       </c>
       <c r="O90" t="n">
-        <v>13.58121965012823</v>
+        <v>-108.0296773644329</v>
       </c>
       <c r="P90" t="n">
-        <v>-38.35729689145779</v>
+        <v>-159.5137846795806</v>
       </c>
     </row>
     <row r="91">
@@ -4837,48 +4845,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1704</v>
+        <v>1573</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>13.10528182983398</v>
+        <v>1.768369793891907</v>
       </c>
       <c r="E91" t="n">
-        <v>21.07930033465572</v>
+        <v>157.8432039398791</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>27.66570913456149</v>
+        <v>171.1158309150513</v>
       </c>
       <c r="H91" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I91" t="n">
-        <v>-25.72022846800719</v>
+        <v>-10.35352327945639</v>
       </c>
       <c r="J91" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K91" t="b">
-        <v>1</v>
-      </c>
-      <c r="L91" t="n">
-        <v>22</v>
-      </c>
-      <c r="M91" t="n">
-        <v>-18.39911470654242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
-        <v>6.586408799905772</v>
-      </c>
-      <c r="O91" t="n">
-        <v>-39.47841504119813</v>
-      </c>
-      <c r="P91" t="n">
-        <v>-46.06482384110391</v>
-      </c>
+        <v>13.27262697517227</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4887,47 +4887,47 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1740</v>
+        <v>1648</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>13.47433185577393</v>
+        <v>5.793458461761475</v>
       </c>
       <c r="E92" t="n">
-        <v>20.57812728145602</v>
+        <v>117.4076811210227</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>26.67445456548308</v>
+        <v>169.3461976626087</v>
       </c>
       <c r="H92" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I92" t="n">
-        <v>-15.00327014553007</v>
+        <v>-14.49275333985789</v>
       </c>
       <c r="J92" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M92" t="n">
-        <v>1.196642815015308</v>
+        <v>130.9889007711509</v>
       </c>
       <c r="N92" t="n">
-        <v>6.096327284027062</v>
+        <v>51.93851654158603</v>
       </c>
       <c r="O92" t="n">
-        <v>-19.38148446644071</v>
+        <v>13.58121965012823</v>
       </c>
       <c r="P92" t="n">
-        <v>-25.47781175046777</v>
+        <v>-38.35729689145779</v>
       </c>
     </row>
     <row r="93">
@@ -4937,47 +4937,47 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1754</v>
+        <v>1704</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>15.46392726898193</v>
+        <v>13.10528182983398</v>
       </c>
       <c r="E93" t="n">
-        <v>18.84322905626933</v>
+        <v>21.07930033465572</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>22.70073209094979</v>
+        <v>27.66570913456149</v>
       </c>
       <c r="H93" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I93" t="n">
-        <v>-25.93898530472758</v>
+        <v>-25.72022846800719</v>
       </c>
       <c r="J93" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M93" t="n">
-        <v>-17.94870498201584</v>
+        <v>-18.39911470654242</v>
       </c>
       <c r="N93" t="n">
-        <v>3.857503034680462</v>
+        <v>6.586408799905772</v>
       </c>
       <c r="O93" t="n">
-        <v>-36.79193403828517</v>
+        <v>-39.47841504119813</v>
       </c>
       <c r="P93" t="n">
-        <v>-40.64943707296563</v>
+        <v>-46.06482384110391</v>
       </c>
     </row>
     <row r="94">
@@ -4987,29 +4987,29 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1772</v>
+        <v>1740</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>13.31983184814453</v>
+        <v>13.47433185577393</v>
       </c>
       <c r="E94" t="n">
-        <v>31.22508029008103</v>
+        <v>20.57812728145602</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>46.4395858817268</v>
+        <v>26.67445456548308</v>
       </c>
       <c r="H94" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I94" t="n">
-        <v>-14.01737215817534</v>
+        <v>-15.00327014553007</v>
       </c>
       <c r="J94" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
@@ -5018,16 +5018,16 @@
         <v>12</v>
       </c>
       <c r="M94" t="n">
-        <v>-12.47561369573797</v>
+        <v>1.196642815015308</v>
       </c>
       <c r="N94" t="n">
-        <v>15.21450559164577</v>
+        <v>6.096327284027062</v>
       </c>
       <c r="O94" t="n">
-        <v>-43.700693985819</v>
+        <v>-19.38148446644071</v>
       </c>
       <c r="P94" t="n">
-        <v>-58.91519957746476</v>
+        <v>-25.47781175046777</v>
       </c>
     </row>
     <row r="95">
@@ -5037,47 +5037,47 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1787</v>
+        <v>1754</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>15.76528835296631</v>
+        <v>15.46392726898193</v>
       </c>
       <c r="E95" t="n">
-        <v>37.49492698702563</v>
+        <v>18.84322905626933</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>38.74885376651005</v>
+        <v>22.70073209094979</v>
       </c>
       <c r="H95" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I95" t="n">
-        <v>-5.961892398860007</v>
+        <v>-25.93898530472758</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="K95" t="b">
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M95" t="n">
-        <v>11.52307259836201</v>
+        <v>-17.94870498201584</v>
       </c>
       <c r="N95" t="n">
-        <v>1.253926779484416</v>
+        <v>3.857503034680462</v>
       </c>
       <c r="O95" t="n">
-        <v>-25.97185438866362</v>
+        <v>-36.79193403828517</v>
       </c>
       <c r="P95" t="n">
-        <v>-27.22578116814804</v>
+        <v>-40.64943707296563</v>
       </c>
     </row>
     <row r="96">
@@ -5087,47 +5087,47 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1801</v>
+        <v>1772</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>17.72410583496094</v>
+        <v>13.31983184814453</v>
       </c>
       <c r="E96" t="n">
-        <v>36.79879206279104</v>
+        <v>31.22508029008103</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>45.23657073329964</v>
+        <v>46.4395858817268</v>
       </c>
       <c r="H96" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I96" t="n">
-        <v>-12.81696284735721</v>
+        <v>-14.01737215817534</v>
       </c>
       <c r="J96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M96" t="n">
-        <v>-3.45781818870543</v>
+        <v>-12.47561369573797</v>
       </c>
       <c r="N96" t="n">
-        <v>8.437778670508592</v>
+        <v>15.21450559164577</v>
       </c>
       <c r="O96" t="n">
-        <v>-40.25661025149648</v>
+        <v>-43.700693985819</v>
       </c>
       <c r="P96" t="n">
-        <v>-48.69438892200507</v>
+        <v>-58.91519957746476</v>
       </c>
     </row>
     <row r="97">
@@ -5137,47 +5137,47 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1817</v>
+        <v>1787</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>18.39417457580566</v>
+        <v>15.76528835296631</v>
       </c>
       <c r="E97" t="n">
-        <v>12.83352231397332</v>
+        <v>37.49492698702563</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>39.94584753858376</v>
+        <v>38.74885376651005</v>
       </c>
       <c r="H97" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I97" t="n">
-        <v>-12.63882891677991</v>
+        <v>-5.961892398860007</v>
       </c>
       <c r="J97" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M97" t="n">
-        <v>-9.817868288011681</v>
+        <v>11.52307259836201</v>
       </c>
       <c r="N97" t="n">
-        <v>27.11232522461044</v>
+        <v>1.253926779484416</v>
       </c>
       <c r="O97" t="n">
-        <v>-22.651390601985</v>
+        <v>-25.97185438866362</v>
       </c>
       <c r="P97" t="n">
-        <v>-49.76371582659544</v>
+        <v>-27.22578116814804</v>
       </c>
     </row>
     <row r="98">
@@ -5187,47 +5187,47 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1836</v>
+        <v>1801</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>19.12377166748047</v>
+        <v>17.72410583496094</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.462133231947294</v>
+        <v>36.79879206279104</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>34.60672902517136</v>
+        <v>45.23657073329964</v>
       </c>
       <c r="H98" t="n">
+        <v>49</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-12.81696284735721</v>
+      </c>
+      <c r="J98" t="n">
         <v>14</v>
       </c>
-      <c r="I98" t="n">
-        <v>-21.78086692244566</v>
-      </c>
-      <c r="J98" t="n">
-        <v>46</v>
-      </c>
       <c r="K98" t="b">
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M98" t="n">
-        <v>8.528774738279999</v>
+        <v>-3.45781818870543</v>
       </c>
       <c r="N98" t="n">
-        <v>41.06886225711865</v>
+        <v>8.437778670508592</v>
       </c>
       <c r="O98" t="n">
-        <v>14.99090797022729</v>
+        <v>-40.25661025149648</v>
       </c>
       <c r="P98" t="n">
-        <v>-26.07795428689136</v>
+        <v>-48.69438892200507</v>
       </c>
     </row>
     <row r="99">
@@ -5237,47 +5237,47 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1884</v>
+        <v>1817</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>18.93355178833008</v>
+        <v>18.39417457580566</v>
       </c>
       <c r="E99" t="n">
-        <v>1.037562178680085</v>
+        <v>12.83352231397332</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>7.412932550962144</v>
+        <v>39.94584753858376</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I99" t="n">
-        <v>-32.55222772053396</v>
+        <v>-12.63882891677991</v>
       </c>
       <c r="J99" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M99" t="n">
-        <v>-11.79104618947371</v>
+        <v>-9.817868288011681</v>
       </c>
       <c r="N99" t="n">
-        <v>6.375370372282059</v>
+        <v>27.11232522461044</v>
       </c>
       <c r="O99" t="n">
-        <v>-12.82860836815379</v>
+        <v>-22.651390601985</v>
       </c>
       <c r="P99" t="n">
-        <v>-19.20397874043585</v>
+        <v>-49.76371582659544</v>
       </c>
     </row>
     <row r="100">
@@ -5287,140 +5287,148 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1895</v>
+        <v>1836</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>18.34953117370605</v>
+        <v>19.12377166748047</v>
       </c>
       <c r="E100" t="n">
-        <v>25.23480477346203</v>
+        <v>-6.462133231947294</v>
       </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>27.41469490113707</v>
+        <v>34.60672902517136</v>
       </c>
       <c r="H100" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I100" t="n">
-        <v>-30.40553039901762</v>
+        <v>-21.78086692244566</v>
       </c>
       <c r="J100" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M100" t="n">
-        <v>-12.82210198515888</v>
+        <v>8.528774738279999</v>
       </c>
       <c r="N100" t="n">
-        <v>2.179890127675044</v>
+        <v>41.06886225711865</v>
       </c>
       <c r="O100" t="n">
-        <v>-38.05690675862091</v>
+        <v>14.99090797022729</v>
       </c>
       <c r="P100" t="n">
-        <v>-40.23679688629596</v>
+        <v>-26.07795428689136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>twelve_bar_breakout</t>
+          <t>downtrend_reversal</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>595</v>
+        <v>1884</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>0.0059466897509992</v>
+        <v>18.93355178833008</v>
       </c>
       <c r="E101" t="n">
-        <v>-33.33523355811718</v>
+        <v>1.037562178680085</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>66.67042894351314</v>
+        <v>7.412932550962144</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-71.11400573465984</v>
+        <v>-32.55222772053396</v>
       </c>
       <c r="J101" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M101" t="n">
-        <v>16.67040838675549</v>
+        <v>-11.79104618947371</v>
       </c>
       <c r="N101" t="n">
-        <v>100.0056625016303</v>
+        <v>6.375370372282059</v>
       </c>
       <c r="O101" t="n">
-        <v>50.00564194487266</v>
+        <v>-12.82860836815379</v>
       </c>
       <c r="P101" t="n">
-        <v>-50.00002055675766</v>
+        <v>-19.20397874043585</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>twelve_bar_breakout</t>
+          <t>downtrend_reversal</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>664</v>
+        <v>1895</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>0.0046251281164586</v>
+        <v>18.34953117370605</v>
       </c>
       <c r="E102" t="n">
-        <v>-31.42649898760508</v>
+        <v>25.23480477346203</v>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>28.57350541003614</v>
+        <v>27.41469490113707</v>
       </c>
       <c r="H102" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I102" t="n">
-        <v>-56.42649386732853</v>
+        <v>-30.40553039901762</v>
       </c>
       <c r="J102" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K102" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>11</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-12.82210198515888</v>
+      </c>
       <c r="N102" t="n">
-        <v>60.00000439764122</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
+        <v>2.179890127675044</v>
+      </c>
+      <c r="O102" t="n">
+        <v>-38.05690675862091</v>
+      </c>
+      <c r="P102" t="n">
+        <v>-40.23679688629596</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5429,40 +5437,48 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>832</v>
+        <v>595</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>0.0178407412022352</v>
+        <v>0.0059466897509992</v>
       </c>
       <c r="E103" t="n">
-        <v>466.0378516784252</v>
+        <v>-33.33523355811718</v>
       </c>
       <c r="F103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>947.1698362444597</v>
+        <v>66.67042894351314</v>
       </c>
       <c r="H103" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>-15.09433635924169</v>
+        <v>-71.11400573465984</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K103" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>12</v>
+      </c>
+      <c r="M103" t="n">
+        <v>16.67040838675549</v>
+      </c>
       <c r="N103" t="n">
-        <v>481.1319845660345</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
+        <v>100.0056625016303</v>
+      </c>
+      <c r="O103" t="n">
+        <v>50.00564194487266</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-50.00002055675766</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5471,29 +5487,29 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>843</v>
+        <v>664</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>0.0299589857459068</v>
+        <v>0.0046251281164586</v>
       </c>
       <c r="E104" t="n">
-        <v>371.9099871749187</v>
+        <v>-31.42649898760508</v>
       </c>
       <c r="F104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>523.5954114627168</v>
+        <v>28.57350541003614</v>
       </c>
       <c r="H104" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I104" t="n">
-        <v>-25.84271550316049</v>
+        <v>-56.42649386732853</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
@@ -5501,7 +5517,7 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
-        <v>151.6854242877981</v>
+        <v>60.00000439764122</v>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
@@ -5513,26 +5529,26 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>0.036354724317789</v>
+        <v>0.0178407412022352</v>
       </c>
       <c r="E105" t="n">
-        <v>291.6666401950965</v>
+        <v>466.0378516784252</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>413.8888107063117</v>
+        <v>947.1698362444597</v>
       </c>
       <c r="H105" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I105" t="n">
-        <v>-25.92593370056484</v>
+        <v>-15.09433635924169</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -5543,7 +5559,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>122.2221705112152</v>
+        <v>481.1319845660345</v>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
@@ -5555,26 +5571,26 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>889</v>
+        <v>843</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>0.1110838800668716</v>
+        <v>0.0299589857459068</v>
       </c>
       <c r="E106" t="n">
-        <v>192.4241617349992</v>
+        <v>371.9099871749187</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>259.0907725698341</v>
+        <v>523.5954114627168</v>
       </c>
       <c r="H106" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I106" t="n">
-        <v>-7.272748125917099</v>
+        <v>-25.84271550316049</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -5585,7 +5601,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>66.66661083483493</v>
+        <v>151.6854242877981</v>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
@@ -5597,29 +5613,29 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>893</v>
+        <v>844</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>0.1622497290372848</v>
+        <v>0.036354724317789</v>
       </c>
       <c r="E107" t="n">
-        <v>72.19919005509998</v>
+        <v>291.6666401950965</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>145.8506189807024</v>
+        <v>413.8888107063117</v>
       </c>
       <c r="H107" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I107" t="n">
-        <v>-21.36926827332137</v>
+        <v>-25.92593370056484</v>
       </c>
       <c r="J107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -5627,7 +5643,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>73.65142892560242</v>
+        <v>122.2221705112152</v>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
@@ -5639,48 +5655,40 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>934</v>
+        <v>889</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>0.316757321357727</v>
+        <v>0.1110838800668716</v>
       </c>
       <c r="E108" t="n">
-        <v>319.766230999871</v>
+        <v>192.4241617349992</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>343.6769599428212</v>
+        <v>259.0907725698341</v>
       </c>
       <c r="H108" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I108" t="n">
-        <v>-16.57811249903101</v>
+        <v>-7.272748125917099</v>
       </c>
       <c r="J108" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="n">
-        <v>50</v>
-      </c>
-      <c r="M108" t="n">
-        <v>259.1923762011446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>23.91072894295019</v>
-      </c>
-      <c r="O108" t="n">
-        <v>-60.57385479872636</v>
-      </c>
-      <c r="P108" t="n">
-        <v>-84.48458374167654</v>
-      </c>
+        <v>66.66661083483493</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5689,48 +5697,40 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>964</v>
+        <v>893</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>0.5308461785316467</v>
+        <v>0.1622497290372848</v>
       </c>
       <c r="E109" t="n">
-        <v>376.8548282692319</v>
+        <v>72.19919005509998</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>454.8509942930094</v>
+        <v>145.8506189807024</v>
       </c>
       <c r="H109" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I109" t="n">
-        <v>-1.77551844535123</v>
+        <v>-21.36926827332137</v>
       </c>
       <c r="J109" t="n">
         <v>3</v>
       </c>
       <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="n">
-        <v>20</v>
-      </c>
-      <c r="M109" t="n">
-        <v>114.3310426615583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>77.9961660237775</v>
-      </c>
-      <c r="O109" t="n">
-        <v>-262.5237856076736</v>
-      </c>
-      <c r="P109" t="n">
-        <v>-340.5199516314511</v>
-      </c>
+        <v>73.65142892560242</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5739,47 +5739,47 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1004</v>
+        <v>934</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>1.969213962554932</v>
+        <v>0.316757321357727</v>
       </c>
       <c r="E110" t="n">
-        <v>-67.52137422177323</v>
+        <v>319.766230999871</v>
       </c>
       <c r="F110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>124.7863026165353</v>
+        <v>343.6769599428212</v>
       </c>
       <c r="H110" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I110" t="n">
-        <v>-68.80341800461765</v>
+        <v>-16.57811249903101</v>
       </c>
       <c r="J110" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M110" t="n">
-        <v>9.230772583559089</v>
+        <v>259.1923762011446</v>
       </c>
       <c r="N110" t="n">
-        <v>192.3076768383086</v>
+        <v>23.91072894295019</v>
       </c>
       <c r="O110" t="n">
-        <v>76.75214680533232</v>
+        <v>-60.57385479872636</v>
       </c>
       <c r="P110" t="n">
-        <v>-115.5555300329763</v>
+        <v>-84.48458374167654</v>
       </c>
     </row>
     <row r="111">
@@ -5789,47 +5789,47 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1029</v>
+        <v>964</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>3.090152025222778</v>
+        <v>0.5308461785316467</v>
       </c>
       <c r="E111" t="n">
-        <v>-71.24183427606911</v>
+        <v>376.8548282692319</v>
       </c>
       <c r="F111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>43.24613225838542</v>
+        <v>454.8509942930094</v>
       </c>
       <c r="H111" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I111" t="n">
-        <v>-87.36383748476962</v>
+        <v>-1.77551844535123</v>
       </c>
       <c r="J111" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M111" t="n">
-        <v>-30.39217463849536</v>
+        <v>114.3310426615583</v>
       </c>
       <c r="N111" t="n">
-        <v>114.4879665344545</v>
+        <v>77.9961660237775</v>
       </c>
       <c r="O111" t="n">
-        <v>40.84965963757375</v>
+        <v>-262.5237856076736</v>
       </c>
       <c r="P111" t="n">
-        <v>-73.63830689688078</v>
+        <v>-340.5199516314511</v>
       </c>
     </row>
     <row r="112">
@@ -5839,40 +5839,48 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1070</v>
+        <v>1004</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>0.9526280760765076</v>
+        <v>1.969213962554932</v>
       </c>
       <c r="E112" t="n">
-        <v>72.79158817169862</v>
+        <v>-67.52137422177323</v>
       </c>
       <c r="F112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>96.81981008376262</v>
+        <v>124.7863026165353</v>
       </c>
       <c r="H112" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I112" t="n">
-        <v>-22.96819754822275</v>
+        <v>-68.80341800461765</v>
       </c>
       <c r="J112" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="K112" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>42</v>
+      </c>
+      <c r="M112" t="n">
+        <v>9.230772583559089</v>
+      </c>
       <c r="N112" t="n">
-        <v>24.028221912064</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
+        <v>192.3076768383086</v>
+      </c>
+      <c r="O112" t="n">
+        <v>76.75214680533232</v>
+      </c>
+      <c r="P112" t="n">
+        <v>-115.5555300329763</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5881,47 +5889,47 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1085</v>
+        <v>1029</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>1.070444345474243</v>
+        <v>3.090152025222778</v>
       </c>
       <c r="E113" t="n">
-        <v>30.50316174395609</v>
+        <v>-71.24183427606911</v>
       </c>
       <c r="F113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>75.15723989440222</v>
+        <v>43.24613225838542</v>
       </c>
       <c r="H113" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I113" t="n">
-        <v>-16.9811302139</v>
+        <v>-87.36383748476962</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M113" t="n">
-        <v>16.9811631734283</v>
+        <v>-30.39217463849536</v>
       </c>
       <c r="N113" t="n">
-        <v>44.65407815044613</v>
+        <v>114.4879665344545</v>
       </c>
       <c r="O113" t="n">
-        <v>-13.52199857052779</v>
+        <v>40.84965963757375</v>
       </c>
       <c r="P113" t="n">
-        <v>-58.17607672097392</v>
+        <v>-73.63830689688078</v>
       </c>
     </row>
     <row r="114">
@@ -5931,48 +5939,40 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1115</v>
+        <v>1070</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>1.494582891464233</v>
+        <v>0.9526280760765076</v>
       </c>
       <c r="E114" t="n">
-        <v>47.29730958478864</v>
+        <v>72.79158817169862</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>56.08104313076475</v>
+        <v>96.81981008376262</v>
       </c>
       <c r="H114" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I114" t="n">
-        <v>-26.12611859532427</v>
+        <v>-22.96819754822275</v>
       </c>
       <c r="J114" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="n">
-        <v>20</v>
-      </c>
-      <c r="M114" t="n">
-        <v>-16.21620629999513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>8.783733545976119</v>
-      </c>
-      <c r="O114" t="n">
-        <v>-63.51351588478377</v>
-      </c>
-      <c r="P114" t="n">
-        <v>-72.29724943075989</v>
-      </c>
+        <v>24.028221912064</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5981,26 +5981,26 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1147</v>
+        <v>1085</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>1.494582891464233</v>
+        <v>1.070444345474243</v>
       </c>
       <c r="E115" t="n">
-        <v>34.40700556013294</v>
+        <v>30.50316174395609</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>65.31527764083806</v>
+        <v>75.15723989440222</v>
       </c>
       <c r="H115" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I115" t="n">
-        <v>-3.603606339397119</v>
+        <v>-16.9811302139</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -6009,19 +6009,19 @@
         <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M115" t="n">
-        <v>33.04933132442191</v>
+        <v>16.9811631734283</v>
       </c>
       <c r="N115" t="n">
-        <v>30.90827208070512</v>
+        <v>44.65407815044613</v>
       </c>
       <c r="O115" t="n">
-        <v>-1.357674235711031</v>
+        <v>-13.52199857052779</v>
       </c>
       <c r="P115" t="n">
-        <v>-32.26594631641615</v>
+        <v>-58.17607672097392</v>
       </c>
     </row>
     <row r="116">
@@ -6031,47 +6031,47 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1225</v>
+        <v>1115</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>1.783771514892578</v>
+        <v>1.494582891464233</v>
       </c>
       <c r="E116" t="n">
-        <v>-3.96831994953004</v>
+        <v>47.29730958478864</v>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>18.79822858937822</v>
+        <v>56.08104313076475</v>
       </c>
       <c r="H116" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="I116" t="n">
-        <v>-45.37469068370795</v>
+        <v>-26.12611859532427</v>
       </c>
       <c r="J116" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K116" t="b">
         <v>1</v>
       </c>
       <c r="L116" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M116" t="n">
-        <v>8.225558965366082</v>
+        <v>-16.21620629999513</v>
       </c>
       <c r="N116" t="n">
-        <v>22.76654853890826</v>
+        <v>8.783733545976119</v>
       </c>
       <c r="O116" t="n">
-        <v>12.19387891489612</v>
+        <v>-63.51351588478377</v>
       </c>
       <c r="P116" t="n">
-        <v>-10.57266962401213</v>
+        <v>-72.29724943075989</v>
       </c>
     </row>
     <row r="117">
@@ -6081,47 +6081,47 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1231</v>
+        <v>1147</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>2.057367563247681</v>
+        <v>1.494582891464233</v>
       </c>
       <c r="E117" t="n">
-        <v>-35.78450556104401</v>
+        <v>34.40700556013294</v>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>3.000018063334668</v>
+        <v>65.31527764083806</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I117" t="n">
-        <v>-52.63895839944887</v>
+        <v>-3.603606339397119</v>
       </c>
       <c r="J117" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K117" t="b">
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M117" t="n">
-        <v>-6.166660389548309</v>
+        <v>33.04933132442191</v>
       </c>
       <c r="N117" t="n">
-        <v>38.78452362437869</v>
+        <v>30.90827208070512</v>
       </c>
       <c r="O117" t="n">
-        <v>29.61784517149571</v>
+        <v>-1.357674235711031</v>
       </c>
       <c r="P117" t="n">
-        <v>-9.166678452882977</v>
+        <v>-32.26594631641615</v>
       </c>
     </row>
     <row r="118">
@@ -6131,47 +6131,47 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1269</v>
+        <v>1225</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>1.494528293609619</v>
+        <v>1.783771514892578</v>
       </c>
       <c r="E118" t="n">
-        <v>27.30193605940554</v>
+        <v>-3.96831994953004</v>
       </c>
       <c r="F118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>40.83962992994832</v>
+        <v>18.79822858937822</v>
       </c>
       <c r="H118" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="I118" t="n">
-        <v>-33.41068169660229</v>
+        <v>-45.37469068370795</v>
       </c>
       <c r="J118" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K118" t="b">
         <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M118" t="n">
-        <v>-17.16939411081364</v>
+        <v>8.225558965366082</v>
       </c>
       <c r="N118" t="n">
-        <v>13.53769387054278</v>
+        <v>22.76654853890826</v>
       </c>
       <c r="O118" t="n">
-        <v>-44.47133017021919</v>
+        <v>12.19387891489612</v>
       </c>
       <c r="P118" t="n">
-        <v>-58.00902404076197</v>
+        <v>-10.57266962401213</v>
       </c>
     </row>
     <row r="119">
@@ -6181,47 +6181,47 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1310</v>
+        <v>1231</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>1.753481864929199</v>
+        <v>2.057367563247681</v>
       </c>
       <c r="E119" t="n">
-        <v>-25.26360244069183</v>
+        <v>-35.78450556104401</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>25.91095506008519</v>
+        <v>3.000018063334668</v>
       </c>
       <c r="H119" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-26.74144946244506</v>
+        <v>-52.63895839944887</v>
       </c>
       <c r="J119" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K119" t="b">
         <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M119" t="n">
-        <v>7.894727896798699</v>
+        <v>-6.166660389548309</v>
       </c>
       <c r="N119" t="n">
-        <v>51.17455750077703</v>
+        <v>38.78452362437869</v>
       </c>
       <c r="O119" t="n">
-        <v>33.15833033749053</v>
+        <v>29.61784517149571</v>
       </c>
       <c r="P119" t="n">
-        <v>-18.01622716328649</v>
+        <v>-9.166678452882977</v>
       </c>
     </row>
     <row r="120">
@@ -6231,47 +6231,47 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1443</v>
+        <v>1269</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>1.167674422264099</v>
+        <v>1.494528293609619</v>
       </c>
       <c r="E120" t="n">
-        <v>91.25876720989737</v>
+        <v>27.30193605940554</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>145.1483737699501</v>
+        <v>40.83962992994832</v>
       </c>
       <c r="H120" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I120" t="n">
-        <v>-11.34868645685374</v>
+        <v>-33.41068169660229</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K120" t="b">
         <v>1</v>
       </c>
       <c r="L120" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M120" t="n">
-        <v>116.6439700901353</v>
+        <v>-17.16939411081364</v>
       </c>
       <c r="N120" t="n">
-        <v>53.8896065600527</v>
+        <v>13.53769387054278</v>
       </c>
       <c r="O120" t="n">
-        <v>25.38520288023793</v>
+        <v>-44.47133017021919</v>
       </c>
       <c r="P120" t="n">
-        <v>-28.50440367981477</v>
+        <v>-58.00902404076197</v>
       </c>
     </row>
     <row r="121">
@@ -6281,40 +6281,48 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1586</v>
+        <v>1310</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>2.045235872268677</v>
+        <v>1.753481864929199</v>
       </c>
       <c r="E121" t="n">
-        <v>170.7654545325256</v>
+        <v>-25.26360244069183</v>
       </c>
       <c r="F121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>180.8875514218833</v>
+        <v>25.91095506008519</v>
       </c>
       <c r="H121" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I121" t="n">
-        <v>-5.131032637375474</v>
+        <v>-26.74144946244506</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K121" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>18</v>
+      </c>
+      <c r="M121" t="n">
+        <v>7.894727896798699</v>
+      </c>
       <c r="N121" t="n">
-        <v>10.12209688935769</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
+        <v>51.17455750077703</v>
+      </c>
+      <c r="O121" t="n">
+        <v>33.15833033749053</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-18.01622716328649</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6323,47 +6331,47 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1629</v>
+        <v>1443</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>4.958136081695557</v>
+        <v>1.167674422264099</v>
       </c>
       <c r="E122" t="n">
-        <v>97.29877913610977</v>
+        <v>91.25876720989737</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>121.3799745153539</v>
+        <v>145.1483737699501</v>
       </c>
       <c r="H122" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I122" t="n">
-        <v>-10.64718623138125</v>
+        <v>-11.34868645685374</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="b">
         <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M122" t="n">
-        <v>5.219194332737223</v>
+        <v>116.6439700901353</v>
       </c>
       <c r="N122" t="n">
-        <v>24.08119537924409</v>
+        <v>53.8896065600527</v>
       </c>
       <c r="O122" t="n">
-        <v>-92.07958480337255</v>
+        <v>25.38520288023793</v>
       </c>
       <c r="P122" t="n">
-        <v>-116.1607801826166</v>
+        <v>-28.50440367981477</v>
       </c>
     </row>
     <row r="123">
@@ -6373,48 +6381,40 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1659</v>
+        <v>1586</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>8.138830184936523</v>
+        <v>2.045235872268677</v>
       </c>
       <c r="E123" t="n">
-        <v>77.64977358111182</v>
+        <v>170.7654545325256</v>
       </c>
       <c r="F123" t="b">
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>91.95766133250339</v>
+        <v>180.8875514218833</v>
       </c>
       <c r="H123" t="n">
         <v>49</v>
       </c>
       <c r="I123" t="n">
-        <v>-6.740046708272708</v>
+        <v>-5.131032637375474</v>
       </c>
       <c r="J123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="n">
-        <v>40</v>
-      </c>
-      <c r="M123" t="n">
-        <v>64.4246865135991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
-        <v>14.30788775139158</v>
-      </c>
-      <c r="O123" t="n">
-        <v>-13.22508706751272</v>
-      </c>
-      <c r="P123" t="n">
-        <v>-27.53297481890429</v>
-      </c>
+        <v>10.12209688935769</v>
+      </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6423,47 +6423,47 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1687</v>
+        <v>1629</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>13.54159927368164</v>
+        <v>4.958136081695557</v>
       </c>
       <c r="E124" t="n">
-        <v>-1.841388182990319</v>
+        <v>97.29877913610977</v>
       </c>
       <c r="F124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>23.55225290603096</v>
+        <v>121.3799745153539</v>
       </c>
       <c r="H124" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I124" t="n">
-        <v>-28.11356173606627</v>
+        <v>-10.64718623138125</v>
       </c>
       <c r="J124" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="K124" t="b">
         <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M124" t="n">
-        <v>-1.176768363950115</v>
+        <v>5.219194332737223</v>
       </c>
       <c r="N124" t="n">
-        <v>25.39364108902128</v>
+        <v>24.08119537924409</v>
       </c>
       <c r="O124" t="n">
-        <v>0.6646198190402033</v>
+        <v>-92.07958480337255</v>
       </c>
       <c r="P124" t="n">
-        <v>-24.72902126998108</v>
+        <v>-116.1607801826166</v>
       </c>
     </row>
     <row r="125">
@@ -6473,47 +6473,47 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1717</v>
+        <v>1659</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>16.22738838195801</v>
+        <v>8.138830184936523</v>
       </c>
       <c r="E125" t="n">
-        <v>-26.10772435963363</v>
+        <v>77.64977358111182</v>
       </c>
       <c r="F125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>3.103164775067916</v>
+        <v>91.95766133250339</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I125" t="n">
-        <v>-40.01145980675746</v>
+        <v>-6.740046708272708</v>
       </c>
       <c r="J125" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K125" t="b">
         <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="M125" t="n">
-        <v>-34.09890894558833</v>
+        <v>64.4246865135991</v>
       </c>
       <c r="N125" t="n">
-        <v>29.21088913470155</v>
+        <v>14.30788775139158</v>
       </c>
       <c r="O125" t="n">
-        <v>-7.991184585954695</v>
+        <v>-13.22508706751272</v>
       </c>
       <c r="P125" t="n">
-        <v>-37.20207372065624</v>
+        <v>-27.53297481890429</v>
       </c>
     </row>
     <row r="126">
@@ -6523,47 +6523,47 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1797</v>
+        <v>1687</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>17.76359748840332</v>
+        <v>13.54159927368164</v>
       </c>
       <c r="E126" t="n">
-        <v>40.17193370170494</v>
+        <v>-1.841388182990319</v>
       </c>
       <c r="F126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>42.63958321080995</v>
+        <v>23.55225290603096</v>
       </c>
       <c r="H126" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I126" t="n">
-        <v>-13.01078632773804</v>
+        <v>-28.11356173606627</v>
       </c>
       <c r="J126" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="K126" t="b">
         <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M126" t="n">
-        <v>-1.022672987846014</v>
+        <v>-1.176768363950115</v>
       </c>
       <c r="N126" t="n">
-        <v>2.467649509105016</v>
+        <v>25.39364108902128</v>
       </c>
       <c r="O126" t="n">
-        <v>-41.19460668955095</v>
+        <v>0.6646198190402033</v>
       </c>
       <c r="P126" t="n">
-        <v>-43.66225619865597</v>
+        <v>-24.72902126998108</v>
       </c>
     </row>
     <row r="127">
@@ -6573,47 +6573,47 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1837</v>
+        <v>1717</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>19.9660758972168</v>
+        <v>16.22738838195801</v>
       </c>
       <c r="E127" t="n">
-        <v>-8.049274864458011</v>
+        <v>-26.10772435963363</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>28.92810605526275</v>
+        <v>3.103164775067916</v>
       </c>
       <c r="H127" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>-25.08067941322744</v>
+        <v>-40.01145980675746</v>
       </c>
       <c r="J127" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K127" t="b">
         <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="M127" t="n">
-        <v>3.950296399284122</v>
+        <v>-34.09890894558833</v>
       </c>
       <c r="N127" t="n">
-        <v>36.97738091972076</v>
+        <v>29.21088913470155</v>
       </c>
       <c r="O127" t="n">
-        <v>11.99957126374213</v>
+        <v>-7.991184585954695</v>
       </c>
       <c r="P127" t="n">
-        <v>-24.97780965597862</v>
+        <v>-37.20207372065624</v>
       </c>
     </row>
     <row r="128">
@@ -6623,46 +6623,146 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1840</v>
+        <v>1797</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
+        <v>17.76359748840332</v>
+      </c>
+      <c r="E128" t="n">
+        <v>40.17193370170494</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42.63958321080995</v>
+      </c>
+      <c r="H128" t="n">
+        <v>49</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-13.01078632773804</v>
+      </c>
+      <c r="J128" t="n">
+        <v>18</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>3</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-1.022672987846014</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2.467649509105016</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-41.19460668955095</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-43.66225619865597</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>19.9660758972168</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-8.049274864458011</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>28.92810605526275</v>
+      </c>
+      <c r="H129" t="n">
+        <v>13</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-25.08067941322744</v>
+      </c>
+      <c r="J129" t="n">
+        <v>45</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>32</v>
+      </c>
+      <c r="M129" t="n">
+        <v>3.950296399284122</v>
+      </c>
+      <c r="N129" t="n">
+        <v>36.97738091972076</v>
+      </c>
+      <c r="O129" t="n">
+        <v>11.99957126374213</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-24.97780965597862</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
         <v>21.51316833496094</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E130" t="n">
         <v>-19.8285039864897</v>
       </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" t="n">
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
         <v>19.65640349685234</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H130" t="n">
         <v>10</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I130" t="n">
         <v>-30.46840810646527</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J130" t="n">
         <v>42</v>
       </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="n">
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
         <v>29</v>
       </c>
-      <c r="M128" t="n">
+      <c r="M130" t="n">
         <v>-3.525158399219228</v>
       </c>
-      <c r="N128" t="n">
+      <c r="N130" t="n">
         <v>39.48490748334204</v>
       </c>
-      <c r="O128" t="n">
+      <c r="O130" t="n">
         <v>16.30334558727047</v>
       </c>
-      <c r="P128" t="n">
+      <c r="P130" t="n">
         <v>-23.18156189607157</v>
       </c>
     </row>
@@ -6794,40 +6894,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>69.35483870967742</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="D2" t="n">
-        <v>64.95537846790042</v>
+        <v>74.04684939716569</v>
       </c>
       <c r="E2" t="n">
-        <v>32.59724952147607</v>
+        <v>34.40700556013294</v>
       </c>
       <c r="F2" t="n">
-        <v>112.4036729537121</v>
+        <v>133.9666583558318</v>
       </c>
       <c r="G2" t="n">
-        <v>107.9089196813005</v>
+        <v>126.4521486860167</v>
       </c>
       <c r="H2" t="n">
-        <v>-26.02945002279903</v>
+        <v>-26.24323104772527</v>
       </c>
       <c r="I2" t="n">
-        <v>42.95354121340009</v>
+        <v>52.40529928885107</v>
       </c>
       <c r="J2" t="n">
-        <v>82.25806451612904</v>
+        <v>81.53846153846153</v>
       </c>
       <c r="K2" t="n">
-        <v>19.58823529411765</v>
+        <v>20.41509433962264</v>
       </c>
       <c r="L2" t="n">
-        <v>43.13725490196079</v>
+        <v>43.39622641509434</v>
       </c>
       <c r="M2" t="n">
-        <v>-29.48391853311732</v>
+        <v>-27.14727643593669</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -6844,31 +6944,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>72.97297297297297</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="D3" t="n">
-        <v>69.90574027345339</v>
+        <v>65.36608590692062</v>
       </c>
       <c r="E3" t="n">
-        <v>30.00819665776617</v>
+        <v>28.87721030734795</v>
       </c>
       <c r="F3" t="n">
-        <v>130.7144200345417</v>
+        <v>129.5767698210911</v>
       </c>
       <c r="G3" t="n">
-        <v>138.3563330156382</v>
+        <v>134.7921580112278</v>
       </c>
       <c r="H3" t="n">
-        <v>-26.75478249121431</v>
+        <v>-25.95476096976476</v>
       </c>
       <c r="I3" t="n">
-        <v>68.45059274218482</v>
+        <v>69.42607210430715</v>
       </c>
       <c r="J3" t="n">
-        <v>83.78378378378379</v>
+        <v>86.11111111111111</v>
       </c>
       <c r="K3" t="n">
         <v>16.48387096774194</v>
